--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468FA8FA-B0F0-43B0-BD4C-C21E960EF228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2775406-ABD5-4F28-8694-DA2569DD7365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3386,9 @@
         <v>36</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="41"/>
+      <c r="D18" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
@@ -33205,21 +33207,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{55F506D9-05DF-439E-9578-6359CB68708B}"/>
+      <autoFilter ref="A11:C37" xr:uid="{C397695B-6036-41CF-BB46-AAE014407FF6}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{4A0788C2-B8B1-473D-9616-7B7C3C5B40D8}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{1ABECD98-E557-449D-820F-CAB484D6CC96}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C1425DE1-C67E-4B3D-B12D-CD7E5CBF1CBF}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{929DFFFF-D196-41EC-B744-A9199570C60B}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{1E0CD2A7-8997-4EC2-8D4D-D1BE9B8179EE}"/>
+      <autoFilter ref="A293:C332" xr:uid="{805B9252-8CDF-45B8-8413-FFC00DE7A3DA}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2775406-ABD5-4F28-8694-DA2569DD7365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F4FBF-415A-4B95-A69C-4E2A0A350BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2741,8 +2741,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3425,7 +3425,9 @@
         <v>37</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E19" s="12" t="s">
         <v>38</v>
       </c>
@@ -3649,7 +3651,9 @@
         <v>49</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E25" s="12" t="s">
         <v>15</v>
       </c>
@@ -3686,7 +3690,6 @@
         <v>50</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="41"/>
       <c r="E26" s="12" t="s">
         <v>51</v>
       </c>
@@ -3760,7 +3763,6 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="41"/>
       <c r="E28" s="12" t="s">
         <v>55</v>
       </c>
@@ -33207,21 +33209,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{C397695B-6036-41CF-BB46-AAE014407FF6}"/>
+      <autoFilter ref="A293:C332" xr:uid="{B3F80A84-1911-4657-9764-20E00EF707E3}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{EB86E71A-1F82-4E99-BB9C-DE23D7B1593A}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4A0788C2-B8B1-473D-9616-7B7C3C5B40D8}"/>
+      <autoFilter ref="A11:D37" xr:uid="{8E7B8E09-DE0D-467D-A99F-53183D2743E8}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{C1425DE1-C67E-4B3D-B12D-CD7E5CBF1CBF}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{805B9252-8CDF-45B8-8413-FFC00DE7A3DA}"/>
+      <autoFilter ref="A11:C37" xr:uid="{D654521A-AA6B-4CEC-B2D7-EC5462C09FEF}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F4FBF-415A-4B95-A69C-4E2A0A350BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF134FA5-2E04-400F-934F-5797C8CC1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2741,8 +2741,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3464,9 @@
         <v>39</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="41"/>
+      <c r="D20" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>40</v>
       </c>
@@ -33209,21 +33211,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{B3F80A84-1911-4657-9764-20E00EF707E3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{5FCD45F0-2EDE-439B-B88C-B06DE01B17D4}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{24B2E198-F00C-4D39-9AD5-BCE865667DCD}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{EB86E71A-1F82-4E99-BB9C-DE23D7B1593A}"/>
+      <autoFilter ref="A11:D37" xr:uid="{FA53436A-13C9-43D6-8776-5B5D70E16714}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{8E7B8E09-DE0D-467D-A99F-53183D2743E8}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{D654521A-AA6B-4CEC-B2D7-EC5462C09FEF}"/>
+      <autoFilter ref="A293:C332" xr:uid="{E078AE93-05A3-489C-A045-BA729FD90156}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF134FA5-2E04-400F-934F-5797C8CC1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029331B-6AD6-48CE-8339-9B83D970D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2378,7 +2378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2488,9 +2488,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2742,7 +2739,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2747,7 @@
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="176.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="176.453125" customWidth="1"/>
     <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
@@ -2758,7 +2755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2774,7 +2771,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="29"/>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="39"/>
-      <c r="E3" s="50"/>
+      <c r="E3" s="49"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3503,7 +3500,9 @@
         <v>41</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E21" s="12" t="s">
         <v>42</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="2"/>
@@ -3976,7 +3975,7 @@
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="2"/>
@@ -4825,7 +4824,7 @@
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="43"/>
+      <c r="D57" s="42"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="2"/>
@@ -4856,7 +4855,7 @@
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="43"/>
+      <c r="D58" s="42"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="2"/>
@@ -5259,7 +5258,7 @@
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="43"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="2"/>
@@ -5290,7 +5289,7 @@
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="42"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="2"/>
@@ -5547,7 +5546,7 @@
         <v>139</v>
       </c>
       <c r="C77" s="32"/>
-      <c r="D77" s="44"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="12" t="s">
         <v>140</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>141</v>
       </c>
       <c r="C78" s="32"/>
-      <c r="D78" s="44"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="12" t="s">
         <v>142</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>143</v>
       </c>
       <c r="C79" s="32"/>
-      <c r="D79" s="44"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="12" t="s">
         <v>144</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>145</v>
       </c>
       <c r="C80" s="32"/>
-      <c r="D80" s="44"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="12" t="s">
         <v>146</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>147</v>
       </c>
       <c r="C81" s="32"/>
-      <c r="D81" s="44"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="12" t="s">
         <v>148</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>149</v>
       </c>
       <c r="C82" s="32"/>
-      <c r="D82" s="44"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="12" t="s">
         <v>150</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>151</v>
       </c>
       <c r="C83" s="32"/>
-      <c r="D83" s="44"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="12" t="s">
         <v>152</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>153</v>
       </c>
       <c r="C84" s="32"/>
-      <c r="D84" s="44"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="12" t="s">
         <v>154</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>155</v>
       </c>
       <c r="C85" s="32"/>
-      <c r="D85" s="44"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="12" t="s">
         <v>53</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>156</v>
       </c>
       <c r="C86" s="32"/>
-      <c r="D86" s="44"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="12" t="s">
         <v>108</v>
       </c>
@@ -6137,7 +6136,7 @@
         <v>169</v>
       </c>
       <c r="C93" s="32"/>
-      <c r="D93" s="44"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="12" t="s">
         <v>162</v>
       </c>
@@ -6170,7 +6169,7 @@
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="43"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="2"/>
@@ -6201,7 +6200,7 @@
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
-      <c r="D95" s="43"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="2"/>
@@ -6236,7 +6235,7 @@
         <v>171</v>
       </c>
       <c r="C96" s="33"/>
-      <c r="D96" s="44"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="12" t="s">
         <v>172</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>173</v>
       </c>
       <c r="C97" s="33"/>
-      <c r="D97" s="44"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="12" t="s">
         <v>174</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>175</v>
       </c>
       <c r="C98" s="33"/>
-      <c r="D98" s="44"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="12" t="s">
         <v>61</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>176</v>
       </c>
       <c r="C99" s="33"/>
-      <c r="D99" s="44"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="12" t="s">
         <v>61</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>177</v>
       </c>
       <c r="C100" s="33"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="12" t="s">
         <v>178</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>179</v>
       </c>
       <c r="C101" s="33"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="12" t="s">
         <v>180</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>181</v>
       </c>
       <c r="C102" s="33"/>
-      <c r="D102" s="44"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="12" t="s">
         <v>182</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>183</v>
       </c>
       <c r="C103" s="33"/>
-      <c r="D103" s="44"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="12" t="s">
         <v>53</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>184</v>
       </c>
       <c r="C104" s="33"/>
-      <c r="D104" s="44"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="12" t="s">
         <v>185</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>186</v>
       </c>
       <c r="C105" s="33"/>
-      <c r="D105" s="44"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="12" t="s">
         <v>182</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>187</v>
       </c>
       <c r="C106" s="33"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="12" t="s">
         <v>188</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>189</v>
       </c>
       <c r="C107" s="33"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="H107" s="2"/>
@@ -6674,7 +6673,7 @@
         <v>190</v>
       </c>
       <c r="C108" s="33"/>
-      <c r="D108" s="44"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="12" t="s">
         <v>191</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>192</v>
       </c>
       <c r="C109" s="33"/>
-      <c r="D109" s="44"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="12" t="s">
         <v>191</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="33"/>
-      <c r="D110" s="44"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="12" t="s">
         <v>53</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>194</v>
       </c>
       <c r="C111" s="33"/>
-      <c r="D111" s="44"/>
+      <c r="D111" s="43"/>
       <c r="E111" s="20" t="s">
         <v>53</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>195</v>
       </c>
       <c r="C112" s="33"/>
-      <c r="D112" s="44"/>
+      <c r="D112" s="43"/>
       <c r="E112" s="12" t="s">
         <v>196</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>197</v>
       </c>
       <c r="C113" s="33"/>
-      <c r="D113" s="44"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="12" t="s">
         <v>182</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>198</v>
       </c>
       <c r="C114" s="33"/>
-      <c r="D114" s="44"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="12" t="s">
         <v>199</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>200</v>
       </c>
       <c r="C115" s="21"/>
-      <c r="D115" s="45"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="12" t="s">
         <v>201</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>202</v>
       </c>
       <c r="C116" s="33"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="12" t="s">
         <v>203</v>
       </c>
@@ -6995,7 +6994,7 @@
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="43"/>
+      <c r="D117" s="42"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
       <c r="I117" s="2"/>
@@ -7024,7 +7023,7 @@
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
-      <c r="D118" s="43"/>
+      <c r="D118" s="42"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
       <c r="I118" s="2"/>
@@ -7237,7 +7236,7 @@
         <v>215</v>
       </c>
       <c r="C124" s="33"/>
-      <c r="D124" s="44"/>
+      <c r="D124" s="43"/>
       <c r="E124" s="23" t="s">
         <v>216</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>230</v>
       </c>
       <c r="C133" s="33"/>
-      <c r="D133" s="44"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="12" t="s">
         <v>53</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>231</v>
       </c>
       <c r="C134" s="33"/>
-      <c r="D134" s="44"/>
+      <c r="D134" s="43"/>
       <c r="E134" s="12" t="s">
         <v>229</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>234</v>
       </c>
       <c r="C136" s="33"/>
-      <c r="D136" s="44"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="12" t="s">
         <v>235</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>245</v>
       </c>
       <c r="C141" s="33"/>
-      <c r="D141" s="44"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="12" t="s">
         <v>246</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>247</v>
       </c>
       <c r="C142" s="33"/>
-      <c r="D142" s="44"/>
+      <c r="D142" s="43"/>
       <c r="E142" s="22" t="s">
         <v>248</v>
       </c>
@@ -7938,7 +7937,7 @@
         <v>249</v>
       </c>
       <c r="C143" s="33"/>
-      <c r="D143" s="44"/>
+      <c r="D143" s="43"/>
       <c r="E143" s="12" t="s">
         <v>250</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>251</v>
       </c>
       <c r="C144" s="33"/>
-      <c r="D144" s="44"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="12" t="s">
         <v>252</v>
       </c>
@@ -8008,7 +8007,7 @@
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
-      <c r="D145" s="43"/>
+      <c r="D145" s="42"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="2"/>
@@ -8041,7 +8040,7 @@
         <v>253</v>
       </c>
       <c r="C146" s="14"/>
-      <c r="D146" s="43"/>
+      <c r="D146" s="42"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="2"/>
@@ -8444,7 +8443,7 @@
         <v>275</v>
       </c>
       <c r="C157" s="33"/>
-      <c r="D157" s="44"/>
+      <c r="D157" s="43"/>
       <c r="E157" s="12" t="s">
         <v>276</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>289</v>
       </c>
       <c r="C165" s="33"/>
-      <c r="D165" s="44"/>
+      <c r="D165" s="43"/>
       <c r="E165" s="12" t="s">
         <v>260</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>290</v>
       </c>
       <c r="C166" s="33"/>
-      <c r="D166" s="44"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="12" t="s">
         <v>291</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>292</v>
       </c>
       <c r="C167" s="33"/>
-      <c r="D167" s="44"/>
+      <c r="D167" s="43"/>
       <c r="E167" s="12" t="s">
         <v>293</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>299</v>
       </c>
       <c r="C172" s="33"/>
-      <c r="D172" s="44"/>
+      <c r="D172" s="43"/>
       <c r="E172" s="12" t="s">
         <v>300</v>
       </c>
@@ -9066,7 +9065,7 @@
       <c r="A175" s="16"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
-      <c r="D175" s="43"/>
+      <c r="D175" s="42"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
       <c r="G175" s="2"/>
@@ -9867,7 +9866,7 @@
       <c r="A198" s="16"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
-      <c r="D198" s="43"/>
+      <c r="D198" s="42"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
       <c r="G198" s="2"/>
@@ -9898,7 +9897,7 @@
       <c r="A199" s="16"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
-      <c r="D199" s="43"/>
+      <c r="D199" s="42"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
       <c r="G199" s="2"/>
@@ -11142,7 +11141,7 @@
       <c r="A233" s="16"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
-      <c r="D233" s="43"/>
+      <c r="D233" s="42"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
       <c r="G233" s="2"/>
@@ -11173,7 +11172,7 @@
       <c r="A234" s="16"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
-      <c r="D234" s="43"/>
+      <c r="D234" s="42"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
       <c r="G234" s="2"/>
@@ -11967,7 +11966,7 @@
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
-      <c r="D256" s="43"/>
+      <c r="D256" s="42"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
       <c r="G256" s="2"/>
@@ -11998,7 +11997,7 @@
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
-      <c r="D257" s="43"/>
+      <c r="D257" s="42"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
       <c r="G257" s="2"/>
@@ -13053,7 +13052,7 @@
       <c r="A286" s="16"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
-      <c r="D286" s="43"/>
+      <c r="D286" s="42"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
       <c r="H286" s="2"/>
@@ -13083,7 +13082,7 @@
       <c r="A287" s="16"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
-      <c r="D287" s="43"/>
+      <c r="D287" s="42"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
       <c r="G287" s="2"/>
@@ -13747,7 +13746,7 @@
         <v>504</v>
       </c>
       <c r="C305" s="36"/>
-      <c r="D305" s="47"/>
+      <c r="D305" s="46"/>
       <c r="E305" s="12" t="s">
         <v>53</v>
       </c>
@@ -14598,7 +14597,7 @@
       <c r="A328" s="16"/>
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
-      <c r="D328" s="43"/>
+      <c r="D328" s="42"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
       <c r="G328" s="35"/>
@@ -14629,7 +14628,7 @@
       <c r="A329" s="16"/>
       <c r="B329" s="14"/>
       <c r="C329" s="14"/>
-      <c r="D329" s="43"/>
+      <c r="D329" s="42"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
       <c r="G329" s="2"/>
@@ -14664,7 +14663,7 @@
         <v>540</v>
       </c>
       <c r="C330" s="36"/>
-      <c r="D330" s="47"/>
+      <c r="D330" s="46"/>
       <c r="E330" s="12" t="s">
         <v>541</v>
       </c>
@@ -14701,7 +14700,7 @@
         <v>542</v>
       </c>
       <c r="C331" s="36"/>
-      <c r="D331" s="47"/>
+      <c r="D331" s="46"/>
       <c r="E331" s="12" t="s">
         <v>543</v>
       </c>
@@ -14738,7 +14737,7 @@
         <v>544</v>
       </c>
       <c r="C332" s="36"/>
-      <c r="D332" s="47"/>
+      <c r="D332" s="46"/>
       <c r="E332" s="12" t="s">
         <v>545</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>546</v>
       </c>
       <c r="C333" s="36"/>
-      <c r="D333" s="47"/>
+      <c r="D333" s="46"/>
       <c r="E333" s="12" t="s">
         <v>547</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>548</v>
       </c>
       <c r="C334" s="36"/>
-      <c r="D334" s="47"/>
+      <c r="D334" s="46"/>
       <c r="E334" s="12" t="s">
         <v>549</v>
       </c>
@@ -14849,7 +14848,7 @@
         <v>550</v>
       </c>
       <c r="C335" s="36"/>
-      <c r="D335" s="47"/>
+      <c r="D335" s="46"/>
       <c r="E335" s="12" t="s">
         <v>551</v>
       </c>
@@ -14882,7 +14881,7 @@
       <c r="A336" s="16"/>
       <c r="B336" s="14"/>
       <c r="C336" s="14"/>
-      <c r="D336" s="43"/>
+      <c r="D336" s="42"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
       <c r="G336" s="2"/>
@@ -14913,7 +14912,7 @@
       <c r="A337" s="16"/>
       <c r="B337" s="14"/>
       <c r="C337" s="14"/>
-      <c r="D337" s="43"/>
+      <c r="D337" s="42"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
       <c r="G337" s="2"/>
@@ -16969,7 +16968,7 @@
       <c r="A393" s="16"/>
       <c r="B393" s="14"/>
       <c r="C393" s="14"/>
-      <c r="D393" s="43"/>
+      <c r="D393" s="42"/>
       <c r="E393" s="15"/>
       <c r="F393" s="15"/>
       <c r="G393" s="2"/>
@@ -17004,7 +17003,7 @@
         <v>633</v>
       </c>
       <c r="C394" s="36"/>
-      <c r="D394" s="47"/>
+      <c r="D394" s="46"/>
       <c r="E394" s="12" t="s">
         <v>634</v>
       </c>
@@ -17039,7 +17038,7 @@
         <v>635</v>
       </c>
       <c r="C395" s="36"/>
-      <c r="D395" s="47"/>
+      <c r="D395" s="46"/>
       <c r="E395" s="12" t="s">
         <v>636</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>637</v>
       </c>
       <c r="C396" s="36"/>
-      <c r="D396" s="47"/>
+      <c r="D396" s="46"/>
       <c r="E396" s="12" t="s">
         <v>166</v>
       </c>
@@ -17109,7 +17108,7 @@
         <v>638</v>
       </c>
       <c r="C397" s="36"/>
-      <c r="D397" s="47"/>
+      <c r="D397" s="46"/>
       <c r="E397" s="12" t="s">
         <v>61</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>639</v>
       </c>
       <c r="C398" s="36"/>
-      <c r="D398" s="47"/>
+      <c r="D398" s="46"/>
       <c r="E398" s="12" t="s">
         <v>640</v>
       </c>
@@ -17179,7 +17178,7 @@
         <v>641</v>
       </c>
       <c r="C399" s="36"/>
-      <c r="D399" s="47"/>
+      <c r="D399" s="46"/>
       <c r="E399" s="12" t="s">
         <v>61</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>642</v>
       </c>
       <c r="C400" s="36"/>
-      <c r="D400" s="47"/>
+      <c r="D400" s="46"/>
       <c r="E400" s="12" t="s">
         <v>260</v>
       </c>
@@ -17249,7 +17248,7 @@
         <v>643</v>
       </c>
       <c r="C401" s="36"/>
-      <c r="D401" s="47"/>
+      <c r="D401" s="46"/>
       <c r="E401" s="12" t="s">
         <v>53</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>644</v>
       </c>
       <c r="C402" s="36"/>
-      <c r="D402" s="47"/>
+      <c r="D402" s="46"/>
       <c r="E402" s="12" t="s">
         <v>61</v>
       </c>
@@ -17319,7 +17318,7 @@
         <v>645</v>
       </c>
       <c r="C403" s="36"/>
-      <c r="D403" s="47"/>
+      <c r="D403" s="46"/>
       <c r="E403" s="12" t="s">
         <v>646</v>
       </c>
@@ -17350,7 +17349,7 @@
       <c r="A404" s="16"/>
       <c r="B404" s="14"/>
       <c r="C404" s="14"/>
-      <c r="D404" s="43"/>
+      <c r="D404" s="42"/>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
       <c r="I404" s="2"/>
@@ -17379,7 +17378,7 @@
       <c r="A405" s="16"/>
       <c r="B405" s="14"/>
       <c r="C405" s="14"/>
-      <c r="D405" s="43"/>
+      <c r="D405" s="42"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
       <c r="I405" s="2"/>
@@ -17480,7 +17479,7 @@
         <v>650</v>
       </c>
       <c r="C408" s="36"/>
-      <c r="D408" s="47"/>
+      <c r="D408" s="46"/>
       <c r="E408" s="12" t="s">
         <v>651</v>
       </c>
@@ -17620,7 +17619,7 @@
       <c r="A412" s="13"/>
       <c r="B412" s="14"/>
       <c r="C412" s="14"/>
-      <c r="D412" s="43"/>
+      <c r="D412" s="42"/>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
       <c r="G412" s="2"/>
@@ -17651,7 +17650,7 @@
       <c r="A413" s="13"/>
       <c r="B413" s="14"/>
       <c r="C413" s="14"/>
-      <c r="D413" s="43"/>
+      <c r="D413" s="42"/>
       <c r="E413" s="26"/>
       <c r="F413" s="26"/>
       <c r="G413" s="2"/>
@@ -17682,7 +17681,7 @@
       <c r="A414" s="13"/>
       <c r="B414" s="14"/>
       <c r="C414" s="14"/>
-      <c r="D414" s="43"/>
+      <c r="D414" s="42"/>
       <c r="E414" s="26"/>
       <c r="F414" s="26"/>
       <c r="G414" s="2"/>
@@ -17713,7 +17712,7 @@
       <c r="A415" s="13"/>
       <c r="B415" s="14"/>
       <c r="C415" s="14"/>
-      <c r="D415" s="43"/>
+      <c r="D415" s="42"/>
       <c r="E415" s="26"/>
       <c r="F415" s="26"/>
       <c r="G415" s="2"/>
@@ -17744,7 +17743,7 @@
       <c r="A416" s="13"/>
       <c r="B416" s="14"/>
       <c r="C416" s="14"/>
-      <c r="D416" s="43"/>
+      <c r="D416" s="42"/>
       <c r="E416" s="26"/>
       <c r="F416" s="26"/>
       <c r="G416" s="2"/>
@@ -17775,7 +17774,7 @@
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="14"/>
-      <c r="D417" s="43"/>
+      <c r="D417" s="42"/>
       <c r="E417" s="26"/>
       <c r="F417" s="26"/>
       <c r="G417" s="2"/>
@@ -17806,7 +17805,7 @@
       <c r="A418" s="13"/>
       <c r="B418" s="14"/>
       <c r="C418" s="14"/>
-      <c r="D418" s="43"/>
+      <c r="D418" s="42"/>
       <c r="E418" s="26"/>
       <c r="F418" s="26"/>
       <c r="G418" s="2"/>
@@ -17837,7 +17836,7 @@
       <c r="A419" s="13"/>
       <c r="B419" s="14"/>
       <c r="C419" s="14"/>
-      <c r="D419" s="43"/>
+      <c r="D419" s="42"/>
       <c r="E419" s="26"/>
       <c r="F419" s="26"/>
       <c r="G419" s="2"/>
@@ -17868,7 +17867,7 @@
       <c r="A420" s="13"/>
       <c r="B420" s="14"/>
       <c r="C420" s="14"/>
-      <c r="D420" s="43"/>
+      <c r="D420" s="42"/>
       <c r="E420" s="26"/>
       <c r="F420" s="26"/>
       <c r="G420" s="2"/>
@@ -17899,7 +17898,7 @@
       <c r="A421" s="13"/>
       <c r="B421" s="14"/>
       <c r="C421" s="14"/>
-      <c r="D421" s="43"/>
+      <c r="D421" s="42"/>
       <c r="E421" s="26"/>
       <c r="F421" s="26"/>
       <c r="G421" s="2"/>
@@ -17930,7 +17929,7 @@
       <c r="A422" s="13"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
-      <c r="D422" s="43"/>
+      <c r="D422" s="42"/>
       <c r="E422" s="26"/>
       <c r="F422" s="26"/>
       <c r="G422" s="2"/>
@@ -17961,7 +17960,7 @@
       <c r="A423" s="13"/>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
-      <c r="D423" s="43"/>
+      <c r="D423" s="42"/>
       <c r="E423" s="26"/>
       <c r="F423" s="26"/>
       <c r="G423" s="2"/>
@@ -17992,7 +17991,7 @@
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
-      <c r="D424" s="43"/>
+      <c r="D424" s="42"/>
       <c r="E424" s="26"/>
       <c r="F424" s="26"/>
       <c r="G424" s="2"/>
@@ -18023,7 +18022,7 @@
       <c r="A425" s="13"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
-      <c r="D425" s="43"/>
+      <c r="D425" s="42"/>
       <c r="E425" s="26"/>
       <c r="F425" s="26"/>
       <c r="G425" s="2"/>
@@ -18054,7 +18053,7 @@
       <c r="A426" s="13"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
-      <c r="D426" s="43"/>
+      <c r="D426" s="42"/>
       <c r="E426" s="26"/>
       <c r="F426" s="26"/>
       <c r="G426" s="2"/>
@@ -18085,7 +18084,7 @@
       <c r="A427" s="13"/>
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
-      <c r="D427" s="43"/>
+      <c r="D427" s="42"/>
       <c r="E427" s="26"/>
       <c r="F427" s="26"/>
       <c r="G427" s="2"/>
@@ -18116,7 +18115,7 @@
       <c r="A428" s="13"/>
       <c r="B428" s="14"/>
       <c r="C428" s="14"/>
-      <c r="D428" s="43"/>
+      <c r="D428" s="42"/>
       <c r="E428" s="26"/>
       <c r="F428" s="26"/>
       <c r="G428" s="2"/>
@@ -18147,7 +18146,7 @@
       <c r="A429" s="13"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
-      <c r="D429" s="43"/>
+      <c r="D429" s="42"/>
       <c r="E429" s="26"/>
       <c r="F429" s="26"/>
       <c r="G429" s="2"/>
@@ -18178,7 +18177,7 @@
       <c r="A430" s="13"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
-      <c r="D430" s="43"/>
+      <c r="D430" s="42"/>
       <c r="E430" s="26"/>
       <c r="F430" s="26"/>
       <c r="G430" s="2"/>
@@ -18209,7 +18208,7 @@
       <c r="A431" s="13"/>
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
-      <c r="D431" s="43"/>
+      <c r="D431" s="42"/>
       <c r="E431" s="26"/>
       <c r="F431" s="26"/>
       <c r="G431" s="2"/>
@@ -18240,7 +18239,7 @@
       <c r="A432" s="13"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
-      <c r="D432" s="43"/>
+      <c r="D432" s="42"/>
       <c r="E432" s="26"/>
       <c r="F432" s="26"/>
       <c r="G432" s="2"/>
@@ -18271,7 +18270,7 @@
       <c r="A433" s="13"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
-      <c r="D433" s="43"/>
+      <c r="D433" s="42"/>
       <c r="E433" s="26"/>
       <c r="F433" s="26"/>
       <c r="G433" s="2"/>
@@ -18302,7 +18301,7 @@
       <c r="A434" s="13"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
-      <c r="D434" s="43"/>
+      <c r="D434" s="42"/>
       <c r="E434" s="26"/>
       <c r="F434" s="26"/>
       <c r="G434" s="2"/>
@@ -18333,7 +18332,7 @@
       <c r="A435" s="13"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
-      <c r="D435" s="43"/>
+      <c r="D435" s="42"/>
       <c r="E435" s="26"/>
       <c r="F435" s="26"/>
       <c r="G435" s="2"/>
@@ -18364,7 +18363,7 @@
       <c r="A436" s="13"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
-      <c r="D436" s="43"/>
+      <c r="D436" s="42"/>
       <c r="E436" s="26"/>
       <c r="F436" s="26"/>
       <c r="G436" s="2"/>
@@ -18395,7 +18394,7 @@
       <c r="A437" s="13"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
-      <c r="D437" s="43"/>
+      <c r="D437" s="42"/>
       <c r="E437" s="26"/>
       <c r="F437" s="26"/>
       <c r="G437" s="2"/>
@@ -18426,7 +18425,7 @@
       <c r="A438" s="13"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
-      <c r="D438" s="43"/>
+      <c r="D438" s="42"/>
       <c r="E438" s="26"/>
       <c r="F438" s="26"/>
       <c r="G438" s="2"/>
@@ -18457,7 +18456,7 @@
       <c r="A439" s="13"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
-      <c r="D439" s="43"/>
+      <c r="D439" s="42"/>
       <c r="E439" s="26"/>
       <c r="F439" s="26"/>
       <c r="G439" s="2"/>
@@ -18488,7 +18487,7 @@
       <c r="A440" s="13"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
-      <c r="D440" s="43"/>
+      <c r="D440" s="42"/>
       <c r="E440" s="26"/>
       <c r="F440" s="26"/>
       <c r="G440" s="2"/>
@@ -18519,7 +18518,7 @@
       <c r="A441" s="13"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
-      <c r="D441" s="43"/>
+      <c r="D441" s="42"/>
       <c r="E441" s="26"/>
       <c r="F441" s="26"/>
       <c r="G441" s="2"/>
@@ -18550,7 +18549,7 @@
       <c r="A442" s="13"/>
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
-      <c r="D442" s="43"/>
+      <c r="D442" s="42"/>
       <c r="E442" s="26"/>
       <c r="F442" s="26"/>
       <c r="G442" s="2"/>
@@ -18581,7 +18580,7 @@
       <c r="A443" s="13"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
-      <c r="D443" s="43"/>
+      <c r="D443" s="42"/>
       <c r="E443" s="26"/>
       <c r="F443" s="26"/>
       <c r="G443" s="2"/>
@@ -18612,7 +18611,7 @@
       <c r="A444" s="13"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
-      <c r="D444" s="43"/>
+      <c r="D444" s="42"/>
       <c r="E444" s="26"/>
       <c r="F444" s="26"/>
       <c r="G444" s="2"/>
@@ -18643,7 +18642,7 @@
       <c r="A445" s="13"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
-      <c r="D445" s="43"/>
+      <c r="D445" s="42"/>
       <c r="E445" s="26"/>
       <c r="F445" s="26"/>
       <c r="G445" s="2"/>
@@ -18674,7 +18673,7 @@
       <c r="A446" s="13"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
-      <c r="D446" s="43"/>
+      <c r="D446" s="42"/>
       <c r="E446" s="26"/>
       <c r="F446" s="26"/>
       <c r="G446" s="2"/>
@@ -18705,7 +18704,7 @@
       <c r="A447" s="13"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
-      <c r="D447" s="43"/>
+      <c r="D447" s="42"/>
       <c r="E447" s="26"/>
       <c r="F447" s="26"/>
       <c r="G447" s="2"/>
@@ -18736,7 +18735,7 @@
       <c r="A448" s="13"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
-      <c r="D448" s="43"/>
+      <c r="D448" s="42"/>
       <c r="E448" s="26"/>
       <c r="F448" s="26"/>
       <c r="G448" s="2"/>
@@ -18767,7 +18766,7 @@
       <c r="A449" s="13"/>
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
-      <c r="D449" s="43"/>
+      <c r="D449" s="42"/>
       <c r="E449" s="26"/>
       <c r="F449" s="26"/>
       <c r="G449" s="2"/>
@@ -18798,7 +18797,7 @@
       <c r="A450" s="13"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
-      <c r="D450" s="43"/>
+      <c r="D450" s="42"/>
       <c r="E450" s="26"/>
       <c r="F450" s="26"/>
       <c r="G450" s="2"/>
@@ -18829,7 +18828,7 @@
       <c r="A451" s="13"/>
       <c r="B451" s="14"/>
       <c r="C451" s="14"/>
-      <c r="D451" s="43"/>
+      <c r="D451" s="42"/>
       <c r="E451" s="26"/>
       <c r="F451" s="26"/>
       <c r="G451" s="2"/>
@@ -18860,7 +18859,7 @@
       <c r="A452" s="13"/>
       <c r="B452" s="14"/>
       <c r="C452" s="14"/>
-      <c r="D452" s="43"/>
+      <c r="D452" s="42"/>
       <c r="E452" s="26"/>
       <c r="F452" s="26"/>
       <c r="G452" s="2"/>
@@ -18891,7 +18890,7 @@
       <c r="A453" s="13"/>
       <c r="B453" s="14"/>
       <c r="C453" s="14"/>
-      <c r="D453" s="43"/>
+      <c r="D453" s="42"/>
       <c r="E453" s="26"/>
       <c r="F453" s="26"/>
       <c r="G453" s="2"/>
@@ -18922,7 +18921,7 @@
       <c r="A454" s="13"/>
       <c r="B454" s="14"/>
       <c r="C454" s="14"/>
-      <c r="D454" s="43"/>
+      <c r="D454" s="42"/>
       <c r="E454" s="26"/>
       <c r="F454" s="26"/>
       <c r="G454" s="2"/>
@@ -18953,7 +18952,7 @@
       <c r="A455" s="13"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
-      <c r="D455" s="43"/>
+      <c r="D455" s="42"/>
       <c r="E455" s="26"/>
       <c r="F455" s="26"/>
       <c r="G455" s="2"/>
@@ -18984,7 +18983,7 @@
       <c r="A456" s="13"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
-      <c r="D456" s="43"/>
+      <c r="D456" s="42"/>
       <c r="E456" s="26"/>
       <c r="F456" s="26"/>
       <c r="G456" s="2"/>
@@ -19015,7 +19014,7 @@
       <c r="A457" s="13"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
-      <c r="D457" s="43"/>
+      <c r="D457" s="42"/>
       <c r="E457" s="26"/>
       <c r="F457" s="26"/>
       <c r="G457" s="2"/>
@@ -19046,7 +19045,7 @@
       <c r="A458" s="13"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
-      <c r="D458" s="43"/>
+      <c r="D458" s="42"/>
       <c r="E458" s="26"/>
       <c r="F458" s="26"/>
       <c r="G458" s="2"/>
@@ -19077,7 +19076,7 @@
       <c r="A459" s="13"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
-      <c r="D459" s="43"/>
+      <c r="D459" s="42"/>
       <c r="E459" s="26"/>
       <c r="F459" s="26"/>
       <c r="G459" s="2"/>
@@ -19108,7 +19107,7 @@
       <c r="A460" s="13"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
-      <c r="D460" s="43"/>
+      <c r="D460" s="42"/>
       <c r="E460" s="26"/>
       <c r="F460" s="26"/>
       <c r="G460" s="2"/>
@@ -19139,7 +19138,7 @@
       <c r="A461" s="13"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
-      <c r="D461" s="43"/>
+      <c r="D461" s="42"/>
       <c r="E461" s="26"/>
       <c r="F461" s="26"/>
       <c r="G461" s="2"/>
@@ -19170,7 +19169,7 @@
       <c r="A462" s="13"/>
       <c r="B462" s="14"/>
       <c r="C462" s="14"/>
-      <c r="D462" s="43"/>
+      <c r="D462" s="42"/>
       <c r="E462" s="26"/>
       <c r="F462" s="26"/>
       <c r="G462" s="2"/>
@@ -19201,7 +19200,7 @@
       <c r="A463" s="13"/>
       <c r="B463" s="14"/>
       <c r="C463" s="14"/>
-      <c r="D463" s="43"/>
+      <c r="D463" s="42"/>
       <c r="E463" s="26"/>
       <c r="F463" s="26"/>
       <c r="G463" s="2"/>
@@ -19232,7 +19231,7 @@
       <c r="A464" s="13"/>
       <c r="B464" s="14"/>
       <c r="C464" s="14"/>
-      <c r="D464" s="43"/>
+      <c r="D464" s="42"/>
       <c r="E464" s="26"/>
       <c r="F464" s="26"/>
       <c r="G464" s="2"/>
@@ -19263,7 +19262,7 @@
       <c r="A465" s="13"/>
       <c r="B465" s="14"/>
       <c r="C465" s="14"/>
-      <c r="D465" s="43"/>
+      <c r="D465" s="42"/>
       <c r="E465" s="26"/>
       <c r="F465" s="26"/>
       <c r="G465" s="2"/>
@@ -19294,7 +19293,7 @@
       <c r="A466" s="13"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
-      <c r="D466" s="43"/>
+      <c r="D466" s="42"/>
       <c r="E466" s="26"/>
       <c r="F466" s="26"/>
       <c r="G466" s="2"/>
@@ -19325,7 +19324,7 @@
       <c r="A467" s="13"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
-      <c r="D467" s="43"/>
+      <c r="D467" s="42"/>
       <c r="E467" s="26"/>
       <c r="F467" s="26"/>
       <c r="G467" s="2"/>
@@ -19356,7 +19355,7 @@
       <c r="A468" s="13"/>
       <c r="B468" s="14"/>
       <c r="C468" s="14"/>
-      <c r="D468" s="43"/>
+      <c r="D468" s="42"/>
       <c r="E468" s="26"/>
       <c r="F468" s="26"/>
       <c r="G468" s="2"/>
@@ -19387,7 +19386,7 @@
       <c r="A469" s="13"/>
       <c r="B469" s="14"/>
       <c r="C469" s="14"/>
-      <c r="D469" s="43"/>
+      <c r="D469" s="42"/>
       <c r="E469" s="26"/>
       <c r="F469" s="26"/>
       <c r="G469" s="2"/>
@@ -19418,7 +19417,7 @@
       <c r="A470" s="13"/>
       <c r="B470" s="14"/>
       <c r="C470" s="14"/>
-      <c r="D470" s="43"/>
+      <c r="D470" s="42"/>
       <c r="E470" s="26"/>
       <c r="F470" s="26"/>
       <c r="G470" s="2"/>
@@ -19449,7 +19448,7 @@
       <c r="A471" s="13"/>
       <c r="B471" s="14"/>
       <c r="C471" s="14"/>
-      <c r="D471" s="43"/>
+      <c r="D471" s="42"/>
       <c r="E471" s="26"/>
       <c r="F471" s="26"/>
       <c r="G471" s="2"/>
@@ -19480,7 +19479,7 @@
       <c r="A472" s="13"/>
       <c r="B472" s="14"/>
       <c r="C472" s="14"/>
-      <c r="D472" s="43"/>
+      <c r="D472" s="42"/>
       <c r="E472" s="26"/>
       <c r="F472" s="26"/>
       <c r="G472" s="2"/>
@@ -19511,7 +19510,7 @@
       <c r="A473" s="13"/>
       <c r="B473" s="14"/>
       <c r="C473" s="14"/>
-      <c r="D473" s="43"/>
+      <c r="D473" s="42"/>
       <c r="E473" s="26"/>
       <c r="F473" s="26"/>
       <c r="G473" s="2"/>
@@ -19542,7 +19541,7 @@
       <c r="A474" s="13"/>
       <c r="B474" s="14"/>
       <c r="C474" s="14"/>
-      <c r="D474" s="43"/>
+      <c r="D474" s="42"/>
       <c r="E474" s="26"/>
       <c r="F474" s="26"/>
       <c r="G474" s="2"/>
@@ -19573,7 +19572,7 @@
       <c r="A475" s="13"/>
       <c r="B475" s="14"/>
       <c r="C475" s="14"/>
-      <c r="D475" s="43"/>
+      <c r="D475" s="42"/>
       <c r="E475" s="26"/>
       <c r="F475" s="26"/>
       <c r="G475" s="2"/>
@@ -19604,7 +19603,7 @@
       <c r="A476" s="13"/>
       <c r="B476" s="14"/>
       <c r="C476" s="14"/>
-      <c r="D476" s="43"/>
+      <c r="D476" s="42"/>
       <c r="E476" s="26"/>
       <c r="F476" s="26"/>
       <c r="G476" s="2"/>
@@ -19635,7 +19634,7 @@
       <c r="A477" s="13"/>
       <c r="B477" s="14"/>
       <c r="C477" s="14"/>
-      <c r="D477" s="43"/>
+      <c r="D477" s="42"/>
       <c r="E477" s="26"/>
       <c r="F477" s="26"/>
       <c r="G477" s="2"/>
@@ -19666,7 +19665,7 @@
       <c r="A478" s="13"/>
       <c r="B478" s="14"/>
       <c r="C478" s="14"/>
-      <c r="D478" s="43"/>
+      <c r="D478" s="42"/>
       <c r="E478" s="26"/>
       <c r="F478" s="26"/>
       <c r="G478" s="2"/>
@@ -19697,7 +19696,7 @@
       <c r="A479" s="13"/>
       <c r="B479" s="14"/>
       <c r="C479" s="14"/>
-      <c r="D479" s="43"/>
+      <c r="D479" s="42"/>
       <c r="E479" s="26"/>
       <c r="F479" s="26"/>
       <c r="G479" s="2"/>
@@ -19728,7 +19727,7 @@
       <c r="A480" s="13"/>
       <c r="B480" s="14"/>
       <c r="C480" s="14"/>
-      <c r="D480" s="43"/>
+      <c r="D480" s="42"/>
       <c r="E480" s="26"/>
       <c r="F480" s="26"/>
       <c r="G480" s="2"/>
@@ -19759,7 +19758,7 @@
       <c r="A481" s="13"/>
       <c r="B481" s="14"/>
       <c r="C481" s="14"/>
-      <c r="D481" s="43"/>
+      <c r="D481" s="42"/>
       <c r="E481" s="26"/>
       <c r="F481" s="26"/>
       <c r="G481" s="2"/>
@@ -19790,7 +19789,7 @@
       <c r="A482" s="13"/>
       <c r="B482" s="14"/>
       <c r="C482" s="14"/>
-      <c r="D482" s="43"/>
+      <c r="D482" s="42"/>
       <c r="E482" s="26"/>
       <c r="F482" s="26"/>
       <c r="G482" s="2"/>
@@ -19821,7 +19820,7 @@
       <c r="A483" s="13"/>
       <c r="B483" s="14"/>
       <c r="C483" s="14"/>
-      <c r="D483" s="43"/>
+      <c r="D483" s="42"/>
       <c r="E483" s="26"/>
       <c r="F483" s="26"/>
       <c r="G483" s="2"/>
@@ -19852,7 +19851,7 @@
       <c r="A484" s="13"/>
       <c r="B484" s="14"/>
       <c r="C484" s="14"/>
-      <c r="D484" s="43"/>
+      <c r="D484" s="42"/>
       <c r="E484" s="26"/>
       <c r="F484" s="26"/>
       <c r="G484" s="2"/>
@@ -19883,7 +19882,7 @@
       <c r="A485" s="13"/>
       <c r="B485" s="14"/>
       <c r="C485" s="14"/>
-      <c r="D485" s="43"/>
+      <c r="D485" s="42"/>
       <c r="E485" s="26"/>
       <c r="F485" s="26"/>
       <c r="G485" s="2"/>
@@ -19914,7 +19913,7 @@
       <c r="A486" s="13"/>
       <c r="B486" s="14"/>
       <c r="C486" s="14"/>
-      <c r="D486" s="43"/>
+      <c r="D486" s="42"/>
       <c r="E486" s="26"/>
       <c r="F486" s="26"/>
       <c r="G486" s="2"/>
@@ -19945,7 +19944,7 @@
       <c r="A487" s="13"/>
       <c r="B487" s="14"/>
       <c r="C487" s="14"/>
-      <c r="D487" s="43"/>
+      <c r="D487" s="42"/>
       <c r="E487" s="26"/>
       <c r="F487" s="26"/>
       <c r="G487" s="2"/>
@@ -19976,7 +19975,7 @@
       <c r="A488" s="13"/>
       <c r="B488" s="14"/>
       <c r="C488" s="14"/>
-      <c r="D488" s="43"/>
+      <c r="D488" s="42"/>
       <c r="E488" s="26"/>
       <c r="F488" s="26"/>
       <c r="G488" s="2"/>
@@ -20007,7 +20006,7 @@
       <c r="A489" s="13"/>
       <c r="B489" s="14"/>
       <c r="C489" s="14"/>
-      <c r="D489" s="43"/>
+      <c r="D489" s="42"/>
       <c r="E489" s="26"/>
       <c r="F489" s="26"/>
       <c r="G489" s="2"/>
@@ -20038,7 +20037,7 @@
       <c r="A490" s="13"/>
       <c r="B490" s="14"/>
       <c r="C490" s="14"/>
-      <c r="D490" s="43"/>
+      <c r="D490" s="42"/>
       <c r="E490" s="26"/>
       <c r="F490" s="26"/>
       <c r="G490" s="2"/>
@@ -20069,7 +20068,7 @@
       <c r="A491" s="13"/>
       <c r="B491" s="14"/>
       <c r="C491" s="14"/>
-      <c r="D491" s="43"/>
+      <c r="D491" s="42"/>
       <c r="E491" s="26"/>
       <c r="F491" s="26"/>
       <c r="G491" s="2"/>
@@ -20100,7 +20099,7 @@
       <c r="A492" s="13"/>
       <c r="B492" s="14"/>
       <c r="C492" s="14"/>
-      <c r="D492" s="43"/>
+      <c r="D492" s="42"/>
       <c r="E492" s="26"/>
       <c r="F492" s="26"/>
       <c r="G492" s="2"/>
@@ -20131,7 +20130,7 @@
       <c r="A493" s="13"/>
       <c r="B493" s="14"/>
       <c r="C493" s="14"/>
-      <c r="D493" s="43"/>
+      <c r="D493" s="42"/>
       <c r="E493" s="26"/>
       <c r="F493" s="26"/>
       <c r="G493" s="2"/>
@@ -20162,7 +20161,7 @@
       <c r="A494" s="13"/>
       <c r="B494" s="14"/>
       <c r="C494" s="14"/>
-      <c r="D494" s="43"/>
+      <c r="D494" s="42"/>
       <c r="E494" s="26"/>
       <c r="F494" s="26"/>
       <c r="G494" s="2"/>
@@ -20193,7 +20192,7 @@
       <c r="A495" s="13"/>
       <c r="B495" s="14"/>
       <c r="C495" s="14"/>
-      <c r="D495" s="43"/>
+      <c r="D495" s="42"/>
       <c r="E495" s="26"/>
       <c r="F495" s="26"/>
       <c r="G495" s="2"/>
@@ -20224,7 +20223,7 @@
       <c r="A496" s="13"/>
       <c r="B496" s="14"/>
       <c r="C496" s="14"/>
-      <c r="D496" s="43"/>
+      <c r="D496" s="42"/>
       <c r="E496" s="26"/>
       <c r="F496" s="26"/>
       <c r="G496" s="2"/>
@@ -20255,7 +20254,7 @@
       <c r="A497" s="13"/>
       <c r="B497" s="14"/>
       <c r="C497" s="14"/>
-      <c r="D497" s="43"/>
+      <c r="D497" s="42"/>
       <c r="E497" s="26"/>
       <c r="F497" s="26"/>
       <c r="G497" s="2"/>
@@ -20286,7 +20285,7 @@
       <c r="A498" s="13"/>
       <c r="B498" s="14"/>
       <c r="C498" s="14"/>
-      <c r="D498" s="43"/>
+      <c r="D498" s="42"/>
       <c r="E498" s="26"/>
       <c r="F498" s="26"/>
       <c r="G498" s="2"/>
@@ -20317,7 +20316,7 @@
       <c r="A499" s="13"/>
       <c r="B499" s="14"/>
       <c r="C499" s="14"/>
-      <c r="D499" s="43"/>
+      <c r="D499" s="42"/>
       <c r="E499" s="26"/>
       <c r="F499" s="26"/>
       <c r="G499" s="2"/>
@@ -20348,7 +20347,7 @@
       <c r="A500" s="13"/>
       <c r="B500" s="14"/>
       <c r="C500" s="14"/>
-      <c r="D500" s="43"/>
+      <c r="D500" s="42"/>
       <c r="E500" s="26"/>
       <c r="F500" s="26"/>
       <c r="G500" s="2"/>
@@ -20379,7 +20378,7 @@
       <c r="A501" s="13"/>
       <c r="B501" s="14"/>
       <c r="C501" s="14"/>
-      <c r="D501" s="43"/>
+      <c r="D501" s="42"/>
       <c r="E501" s="26"/>
       <c r="F501" s="26"/>
       <c r="G501" s="2"/>
@@ -20410,7 +20409,7 @@
       <c r="A502" s="13"/>
       <c r="B502" s="14"/>
       <c r="C502" s="14"/>
-      <c r="D502" s="43"/>
+      <c r="D502" s="42"/>
       <c r="E502" s="26"/>
       <c r="F502" s="26"/>
       <c r="G502" s="2"/>
@@ -20441,7 +20440,7 @@
       <c r="A503" s="13"/>
       <c r="B503" s="14"/>
       <c r="C503" s="14"/>
-      <c r="D503" s="43"/>
+      <c r="D503" s="42"/>
       <c r="E503" s="26"/>
       <c r="F503" s="26"/>
       <c r="G503" s="2"/>
@@ -20472,7 +20471,7 @@
       <c r="A504" s="13"/>
       <c r="B504" s="14"/>
       <c r="C504" s="14"/>
-      <c r="D504" s="43"/>
+      <c r="D504" s="42"/>
       <c r="E504" s="26"/>
       <c r="F504" s="26"/>
       <c r="G504" s="2"/>
@@ -20503,7 +20502,7 @@
       <c r="A505" s="13"/>
       <c r="B505" s="14"/>
       <c r="C505" s="14"/>
-      <c r="D505" s="43"/>
+      <c r="D505" s="42"/>
       <c r="E505" s="26"/>
       <c r="F505" s="26"/>
       <c r="G505" s="2"/>
@@ -20534,7 +20533,7 @@
       <c r="A506" s="13"/>
       <c r="B506" s="14"/>
       <c r="C506" s="14"/>
-      <c r="D506" s="43"/>
+      <c r="D506" s="42"/>
       <c r="E506" s="26"/>
       <c r="F506" s="26"/>
       <c r="G506" s="2"/>
@@ -20565,7 +20564,7 @@
       <c r="A507" s="13"/>
       <c r="B507" s="14"/>
       <c r="C507" s="14"/>
-      <c r="D507" s="43"/>
+      <c r="D507" s="42"/>
       <c r="E507" s="26"/>
       <c r="F507" s="26"/>
       <c r="G507" s="2"/>
@@ -20596,7 +20595,7 @@
       <c r="A508" s="13"/>
       <c r="B508" s="14"/>
       <c r="C508" s="14"/>
-      <c r="D508" s="43"/>
+      <c r="D508" s="42"/>
       <c r="E508" s="26"/>
       <c r="F508" s="26"/>
       <c r="G508" s="2"/>
@@ -20627,7 +20626,7 @@
       <c r="A509" s="13"/>
       <c r="B509" s="14"/>
       <c r="C509" s="14"/>
-      <c r="D509" s="43"/>
+      <c r="D509" s="42"/>
       <c r="E509" s="26"/>
       <c r="F509" s="26"/>
       <c r="G509" s="2"/>
@@ -20658,7 +20657,7 @@
       <c r="A510" s="13"/>
       <c r="B510" s="14"/>
       <c r="C510" s="14"/>
-      <c r="D510" s="43"/>
+      <c r="D510" s="42"/>
       <c r="E510" s="26"/>
       <c r="F510" s="26"/>
       <c r="G510" s="2"/>
@@ -20689,7 +20688,7 @@
       <c r="A511" s="13"/>
       <c r="B511" s="14"/>
       <c r="C511" s="14"/>
-      <c r="D511" s="43"/>
+      <c r="D511" s="42"/>
       <c r="E511" s="26"/>
       <c r="F511" s="26"/>
       <c r="G511" s="2"/>
@@ -20720,7 +20719,7 @@
       <c r="A512" s="13"/>
       <c r="B512" s="14"/>
       <c r="C512" s="14"/>
-      <c r="D512" s="43"/>
+      <c r="D512" s="42"/>
       <c r="E512" s="26"/>
       <c r="F512" s="26"/>
       <c r="G512" s="2"/>
@@ -20751,7 +20750,7 @@
       <c r="A513" s="13"/>
       <c r="B513" s="14"/>
       <c r="C513" s="14"/>
-      <c r="D513" s="43"/>
+      <c r="D513" s="42"/>
       <c r="E513" s="26"/>
       <c r="F513" s="26"/>
       <c r="G513" s="2"/>
@@ -20782,7 +20781,7 @@
       <c r="A514" s="13"/>
       <c r="B514" s="14"/>
       <c r="C514" s="14"/>
-      <c r="D514" s="43"/>
+      <c r="D514" s="42"/>
       <c r="E514" s="26"/>
       <c r="F514" s="26"/>
       <c r="G514" s="2"/>
@@ -20813,7 +20812,7 @@
       <c r="A515" s="13"/>
       <c r="B515" s="14"/>
       <c r="C515" s="14"/>
-      <c r="D515" s="43"/>
+      <c r="D515" s="42"/>
       <c r="E515" s="26"/>
       <c r="F515" s="26"/>
       <c r="G515" s="2"/>
@@ -20844,7 +20843,7 @@
       <c r="A516" s="13"/>
       <c r="B516" s="14"/>
       <c r="C516" s="14"/>
-      <c r="D516" s="43"/>
+      <c r="D516" s="42"/>
       <c r="E516" s="26"/>
       <c r="F516" s="26"/>
       <c r="G516" s="2"/>
@@ -20875,7 +20874,7 @@
       <c r="A517" s="13"/>
       <c r="B517" s="14"/>
       <c r="C517" s="14"/>
-      <c r="D517" s="43"/>
+      <c r="D517" s="42"/>
       <c r="E517" s="26"/>
       <c r="F517" s="26"/>
       <c r="G517" s="2"/>
@@ -20906,7 +20905,7 @@
       <c r="A518" s="13"/>
       <c r="B518" s="14"/>
       <c r="C518" s="14"/>
-      <c r="D518" s="43"/>
+      <c r="D518" s="42"/>
       <c r="E518" s="26"/>
       <c r="F518" s="26"/>
       <c r="G518" s="2"/>
@@ -20937,7 +20936,7 @@
       <c r="A519" s="13"/>
       <c r="B519" s="14"/>
       <c r="C519" s="14"/>
-      <c r="D519" s="43"/>
+      <c r="D519" s="42"/>
       <c r="E519" s="26"/>
       <c r="F519" s="26"/>
       <c r="G519" s="2"/>
@@ -20968,7 +20967,7 @@
       <c r="A520" s="13"/>
       <c r="B520" s="14"/>
       <c r="C520" s="14"/>
-      <c r="D520" s="43"/>
+      <c r="D520" s="42"/>
       <c r="E520" s="26"/>
       <c r="F520" s="26"/>
       <c r="G520" s="2"/>
@@ -20999,7 +20998,7 @@
       <c r="A521" s="13"/>
       <c r="B521" s="14"/>
       <c r="C521" s="14"/>
-      <c r="D521" s="43"/>
+      <c r="D521" s="42"/>
       <c r="E521" s="26"/>
       <c r="F521" s="26"/>
       <c r="G521" s="2"/>
@@ -21030,7 +21029,7 @@
       <c r="A522" s="13"/>
       <c r="B522" s="14"/>
       <c r="C522" s="14"/>
-      <c r="D522" s="43"/>
+      <c r="D522" s="42"/>
       <c r="E522" s="26"/>
       <c r="F522" s="26"/>
       <c r="G522" s="2"/>
@@ -21061,7 +21060,7 @@
       <c r="A523" s="13"/>
       <c r="B523" s="14"/>
       <c r="C523" s="14"/>
-      <c r="D523" s="43"/>
+      <c r="D523" s="42"/>
       <c r="E523" s="26"/>
       <c r="F523" s="26"/>
       <c r="G523" s="2"/>
@@ -21092,7 +21091,7 @@
       <c r="A524" s="13"/>
       <c r="B524" s="14"/>
       <c r="C524" s="14"/>
-      <c r="D524" s="43"/>
+      <c r="D524" s="42"/>
       <c r="E524" s="26"/>
       <c r="F524" s="26"/>
       <c r="G524" s="2"/>
@@ -21123,7 +21122,7 @@
       <c r="A525" s="13"/>
       <c r="B525" s="14"/>
       <c r="C525" s="14"/>
-      <c r="D525" s="43"/>
+      <c r="D525" s="42"/>
       <c r="E525" s="26"/>
       <c r="F525" s="26"/>
       <c r="G525" s="2"/>
@@ -21154,7 +21153,7 @@
       <c r="A526" s="13"/>
       <c r="B526" s="14"/>
       <c r="C526" s="14"/>
-      <c r="D526" s="43"/>
+      <c r="D526" s="42"/>
       <c r="E526" s="26"/>
       <c r="F526" s="26"/>
       <c r="G526" s="2"/>
@@ -21185,7 +21184,7 @@
       <c r="A527" s="13"/>
       <c r="B527" s="14"/>
       <c r="C527" s="14"/>
-      <c r="D527" s="43"/>
+      <c r="D527" s="42"/>
       <c r="E527" s="26"/>
       <c r="F527" s="26"/>
       <c r="G527" s="2"/>
@@ -21216,7 +21215,7 @@
       <c r="A528" s="13"/>
       <c r="B528" s="14"/>
       <c r="C528" s="14"/>
-      <c r="D528" s="43"/>
+      <c r="D528" s="42"/>
       <c r="E528" s="26"/>
       <c r="F528" s="26"/>
       <c r="G528" s="2"/>
@@ -21247,7 +21246,7 @@
       <c r="A529" s="13"/>
       <c r="B529" s="14"/>
       <c r="C529" s="14"/>
-      <c r="D529" s="43"/>
+      <c r="D529" s="42"/>
       <c r="E529" s="26"/>
       <c r="F529" s="26"/>
       <c r="G529" s="2"/>
@@ -21278,7 +21277,7 @@
       <c r="A530" s="13"/>
       <c r="B530" s="14"/>
       <c r="C530" s="14"/>
-      <c r="D530" s="43"/>
+      <c r="D530" s="42"/>
       <c r="E530" s="26"/>
       <c r="F530" s="26"/>
       <c r="G530" s="2"/>
@@ -21309,7 +21308,7 @@
       <c r="A531" s="13"/>
       <c r="B531" s="14"/>
       <c r="C531" s="14"/>
-      <c r="D531" s="43"/>
+      <c r="D531" s="42"/>
       <c r="E531" s="26"/>
       <c r="F531" s="26"/>
       <c r="G531" s="2"/>
@@ -21340,7 +21339,7 @@
       <c r="A532" s="13"/>
       <c r="B532" s="14"/>
       <c r="C532" s="14"/>
-      <c r="D532" s="43"/>
+      <c r="D532" s="42"/>
       <c r="E532" s="26"/>
       <c r="F532" s="26"/>
       <c r="G532" s="2"/>
@@ -21371,7 +21370,7 @@
       <c r="A533" s="13"/>
       <c r="B533" s="14"/>
       <c r="C533" s="14"/>
-      <c r="D533" s="43"/>
+      <c r="D533" s="42"/>
       <c r="E533" s="26"/>
       <c r="F533" s="26"/>
       <c r="G533" s="2"/>
@@ -21402,7 +21401,7 @@
       <c r="A534" s="13"/>
       <c r="B534" s="14"/>
       <c r="C534" s="14"/>
-      <c r="D534" s="43"/>
+      <c r="D534" s="42"/>
       <c r="E534" s="26"/>
       <c r="F534" s="26"/>
       <c r="G534" s="2"/>
@@ -21433,7 +21432,7 @@
       <c r="A535" s="13"/>
       <c r="B535" s="14"/>
       <c r="C535" s="14"/>
-      <c r="D535" s="43"/>
+      <c r="D535" s="42"/>
       <c r="E535" s="26"/>
       <c r="F535" s="26"/>
       <c r="G535" s="2"/>
@@ -21464,7 +21463,7 @@
       <c r="A536" s="13"/>
       <c r="B536" s="14"/>
       <c r="C536" s="14"/>
-      <c r="D536" s="43"/>
+      <c r="D536" s="42"/>
       <c r="E536" s="26"/>
       <c r="F536" s="26"/>
       <c r="G536" s="2"/>
@@ -21495,7 +21494,7 @@
       <c r="A537" s="13"/>
       <c r="B537" s="14"/>
       <c r="C537" s="14"/>
-      <c r="D537" s="43"/>
+      <c r="D537" s="42"/>
       <c r="E537" s="26"/>
       <c r="F537" s="26"/>
       <c r="G537" s="2"/>
@@ -21526,7 +21525,7 @@
       <c r="A538" s="13"/>
       <c r="B538" s="14"/>
       <c r="C538" s="14"/>
-      <c r="D538" s="43"/>
+      <c r="D538" s="42"/>
       <c r="E538" s="26"/>
       <c r="F538" s="26"/>
       <c r="G538" s="2"/>
@@ -21557,7 +21556,7 @@
       <c r="A539" s="13"/>
       <c r="B539" s="14"/>
       <c r="C539" s="14"/>
-      <c r="D539" s="43"/>
+      <c r="D539" s="42"/>
       <c r="E539" s="26"/>
       <c r="F539" s="26"/>
       <c r="G539" s="2"/>
@@ -21588,7 +21587,7 @@
       <c r="A540" s="13"/>
       <c r="B540" s="14"/>
       <c r="C540" s="14"/>
-      <c r="D540" s="43"/>
+      <c r="D540" s="42"/>
       <c r="E540" s="26"/>
       <c r="F540" s="26"/>
       <c r="G540" s="2"/>
@@ -21619,7 +21618,7 @@
       <c r="A541" s="13"/>
       <c r="B541" s="14"/>
       <c r="C541" s="14"/>
-      <c r="D541" s="43"/>
+      <c r="D541" s="42"/>
       <c r="E541" s="26"/>
       <c r="F541" s="26"/>
       <c r="G541" s="2"/>
@@ -21650,7 +21649,7 @@
       <c r="A542" s="13"/>
       <c r="B542" s="14"/>
       <c r="C542" s="14"/>
-      <c r="D542" s="43"/>
+      <c r="D542" s="42"/>
       <c r="E542" s="26"/>
       <c r="F542" s="26"/>
       <c r="G542" s="2"/>
@@ -21681,7 +21680,7 @@
       <c r="A543" s="13"/>
       <c r="B543" s="14"/>
       <c r="C543" s="14"/>
-      <c r="D543" s="43"/>
+      <c r="D543" s="42"/>
       <c r="E543" s="26"/>
       <c r="F543" s="26"/>
       <c r="G543" s="2"/>
@@ -21712,7 +21711,7 @@
       <c r="A544" s="13"/>
       <c r="B544" s="14"/>
       <c r="C544" s="14"/>
-      <c r="D544" s="43"/>
+      <c r="D544" s="42"/>
       <c r="E544" s="26"/>
       <c r="F544" s="26"/>
       <c r="G544" s="2"/>
@@ -21743,7 +21742,7 @@
       <c r="A545" s="13"/>
       <c r="B545" s="14"/>
       <c r="C545" s="14"/>
-      <c r="D545" s="43"/>
+      <c r="D545" s="42"/>
       <c r="E545" s="26"/>
       <c r="F545" s="26"/>
       <c r="G545" s="2"/>
@@ -21774,7 +21773,7 @@
       <c r="A546" s="13"/>
       <c r="B546" s="14"/>
       <c r="C546" s="14"/>
-      <c r="D546" s="43"/>
+      <c r="D546" s="42"/>
       <c r="E546" s="26"/>
       <c r="F546" s="26"/>
       <c r="G546" s="2"/>
@@ -21805,7 +21804,7 @@
       <c r="A547" s="13"/>
       <c r="B547" s="14"/>
       <c r="C547" s="14"/>
-      <c r="D547" s="43"/>
+      <c r="D547" s="42"/>
       <c r="E547" s="26"/>
       <c r="F547" s="26"/>
       <c r="G547" s="2"/>
@@ -21836,7 +21835,7 @@
       <c r="A548" s="13"/>
       <c r="B548" s="14"/>
       <c r="C548" s="14"/>
-      <c r="D548" s="43"/>
+      <c r="D548" s="42"/>
       <c r="E548" s="26"/>
       <c r="F548" s="26"/>
       <c r="G548" s="2"/>
@@ -21867,7 +21866,7 @@
       <c r="A549" s="13"/>
       <c r="B549" s="14"/>
       <c r="C549" s="14"/>
-      <c r="D549" s="43"/>
+      <c r="D549" s="42"/>
       <c r="E549" s="26"/>
       <c r="F549" s="26"/>
       <c r="G549" s="2"/>
@@ -21898,7 +21897,7 @@
       <c r="A550" s="13"/>
       <c r="B550" s="14"/>
       <c r="C550" s="14"/>
-      <c r="D550" s="43"/>
+      <c r="D550" s="42"/>
       <c r="E550" s="26"/>
       <c r="F550" s="26"/>
       <c r="G550" s="2"/>
@@ -21929,7 +21928,7 @@
       <c r="A551" s="13"/>
       <c r="B551" s="14"/>
       <c r="C551" s="14"/>
-      <c r="D551" s="43"/>
+      <c r="D551" s="42"/>
       <c r="E551" s="26"/>
       <c r="F551" s="26"/>
       <c r="G551" s="2"/>
@@ -21960,7 +21959,7 @@
       <c r="A552" s="13"/>
       <c r="B552" s="14"/>
       <c r="C552" s="14"/>
-      <c r="D552" s="43"/>
+      <c r="D552" s="42"/>
       <c r="E552" s="26"/>
       <c r="F552" s="26"/>
       <c r="G552" s="2"/>
@@ -21991,7 +21990,7 @@
       <c r="A553" s="13"/>
       <c r="B553" s="14"/>
       <c r="C553" s="14"/>
-      <c r="D553" s="43"/>
+      <c r="D553" s="42"/>
       <c r="E553" s="26"/>
       <c r="F553" s="26"/>
       <c r="G553" s="2"/>
@@ -22022,7 +22021,7 @@
       <c r="A554" s="13"/>
       <c r="B554" s="14"/>
       <c r="C554" s="14"/>
-      <c r="D554" s="43"/>
+      <c r="D554" s="42"/>
       <c r="E554" s="26"/>
       <c r="F554" s="26"/>
       <c r="G554" s="2"/>
@@ -22053,7 +22052,7 @@
       <c r="A555" s="13"/>
       <c r="B555" s="14"/>
       <c r="C555" s="14"/>
-      <c r="D555" s="43"/>
+      <c r="D555" s="42"/>
       <c r="E555" s="26"/>
       <c r="F555" s="26"/>
       <c r="G555" s="2"/>
@@ -22084,7 +22083,7 @@
       <c r="A556" s="13"/>
       <c r="B556" s="14"/>
       <c r="C556" s="14"/>
-      <c r="D556" s="43"/>
+      <c r="D556" s="42"/>
       <c r="E556" s="26"/>
       <c r="F556" s="26"/>
       <c r="G556" s="2"/>
@@ -22115,7 +22114,7 @@
       <c r="A557" s="13"/>
       <c r="B557" s="14"/>
       <c r="C557" s="14"/>
-      <c r="D557" s="43"/>
+      <c r="D557" s="42"/>
       <c r="E557" s="26"/>
       <c r="F557" s="26"/>
       <c r="G557" s="2"/>
@@ -22146,7 +22145,7 @@
       <c r="A558" s="13"/>
       <c r="B558" s="14"/>
       <c r="C558" s="14"/>
-      <c r="D558" s="43"/>
+      <c r="D558" s="42"/>
       <c r="E558" s="26"/>
       <c r="F558" s="26"/>
       <c r="G558" s="2"/>
@@ -22177,7 +22176,7 @@
       <c r="A559" s="13"/>
       <c r="B559" s="14"/>
       <c r="C559" s="14"/>
-      <c r="D559" s="43"/>
+      <c r="D559" s="42"/>
       <c r="E559" s="26"/>
       <c r="F559" s="26"/>
       <c r="G559" s="2"/>
@@ -22208,7 +22207,7 @@
       <c r="A560" s="13"/>
       <c r="B560" s="14"/>
       <c r="C560" s="14"/>
-      <c r="D560" s="43"/>
+      <c r="D560" s="42"/>
       <c r="E560" s="26"/>
       <c r="F560" s="26"/>
       <c r="G560" s="2"/>
@@ -22239,7 +22238,7 @@
       <c r="A561" s="13"/>
       <c r="B561" s="14"/>
       <c r="C561" s="14"/>
-      <c r="D561" s="43"/>
+      <c r="D561" s="42"/>
       <c r="E561" s="26"/>
       <c r="F561" s="26"/>
       <c r="G561" s="2"/>
@@ -22270,7 +22269,7 @@
       <c r="A562" s="13"/>
       <c r="B562" s="14"/>
       <c r="C562" s="14"/>
-      <c r="D562" s="43"/>
+      <c r="D562" s="42"/>
       <c r="E562" s="26"/>
       <c r="F562" s="26"/>
       <c r="G562" s="2"/>
@@ -22301,7 +22300,7 @@
       <c r="A563" s="13"/>
       <c r="B563" s="14"/>
       <c r="C563" s="14"/>
-      <c r="D563" s="43"/>
+      <c r="D563" s="42"/>
       <c r="E563" s="26"/>
       <c r="F563" s="26"/>
       <c r="G563" s="2"/>
@@ -22332,7 +22331,7 @@
       <c r="A564" s="13"/>
       <c r="B564" s="14"/>
       <c r="C564" s="14"/>
-      <c r="D564" s="43"/>
+      <c r="D564" s="42"/>
       <c r="E564" s="26"/>
       <c r="F564" s="26"/>
       <c r="G564" s="2"/>
@@ -22363,7 +22362,7 @@
       <c r="A565" s="13"/>
       <c r="B565" s="14"/>
       <c r="C565" s="14"/>
-      <c r="D565" s="43"/>
+      <c r="D565" s="42"/>
       <c r="E565" s="26"/>
       <c r="F565" s="26"/>
       <c r="G565" s="2"/>
@@ -22394,7 +22393,7 @@
       <c r="A566" s="13"/>
       <c r="B566" s="14"/>
       <c r="C566" s="14"/>
-      <c r="D566" s="43"/>
+      <c r="D566" s="42"/>
       <c r="E566" s="26"/>
       <c r="F566" s="26"/>
       <c r="G566" s="2"/>
@@ -22425,7 +22424,7 @@
       <c r="A567" s="13"/>
       <c r="B567" s="14"/>
       <c r="C567" s="14"/>
-      <c r="D567" s="43"/>
+      <c r="D567" s="42"/>
       <c r="E567" s="26"/>
       <c r="F567" s="26"/>
       <c r="G567" s="2"/>
@@ -22456,7 +22455,7 @@
       <c r="A568" s="13"/>
       <c r="B568" s="14"/>
       <c r="C568" s="14"/>
-      <c r="D568" s="43"/>
+      <c r="D568" s="42"/>
       <c r="E568" s="26"/>
       <c r="F568" s="26"/>
       <c r="G568" s="2"/>
@@ -22487,7 +22486,7 @@
       <c r="A569" s="13"/>
       <c r="B569" s="14"/>
       <c r="C569" s="14"/>
-      <c r="D569" s="43"/>
+      <c r="D569" s="42"/>
       <c r="E569" s="26"/>
       <c r="F569" s="26"/>
       <c r="G569" s="2"/>
@@ -22518,7 +22517,7 @@
       <c r="A570" s="13"/>
       <c r="B570" s="14"/>
       <c r="C570" s="14"/>
-      <c r="D570" s="43"/>
+      <c r="D570" s="42"/>
       <c r="E570" s="26"/>
       <c r="F570" s="26"/>
       <c r="G570" s="2"/>
@@ -22549,7 +22548,7 @@
       <c r="A571" s="13"/>
       <c r="B571" s="14"/>
       <c r="C571" s="14"/>
-      <c r="D571" s="43"/>
+      <c r="D571" s="42"/>
       <c r="E571" s="26"/>
       <c r="F571" s="26"/>
       <c r="G571" s="2"/>
@@ -22580,7 +22579,7 @@
       <c r="A572" s="13"/>
       <c r="B572" s="14"/>
       <c r="C572" s="14"/>
-      <c r="D572" s="43"/>
+      <c r="D572" s="42"/>
       <c r="E572" s="26"/>
       <c r="F572" s="26"/>
       <c r="G572" s="2"/>
@@ -22611,7 +22610,7 @@
       <c r="A573" s="13"/>
       <c r="B573" s="14"/>
       <c r="C573" s="14"/>
-      <c r="D573" s="43"/>
+      <c r="D573" s="42"/>
       <c r="E573" s="26"/>
       <c r="F573" s="26"/>
       <c r="G573" s="2"/>
@@ -22642,7 +22641,7 @@
       <c r="A574" s="13"/>
       <c r="B574" s="14"/>
       <c r="C574" s="14"/>
-      <c r="D574" s="43"/>
+      <c r="D574" s="42"/>
       <c r="E574" s="26"/>
       <c r="F574" s="26"/>
       <c r="G574" s="2"/>
@@ -22673,7 +22672,7 @@
       <c r="A575" s="13"/>
       <c r="B575" s="14"/>
       <c r="C575" s="14"/>
-      <c r="D575" s="43"/>
+      <c r="D575" s="42"/>
       <c r="E575" s="26"/>
       <c r="F575" s="26"/>
       <c r="G575" s="2"/>
@@ -22704,7 +22703,7 @@
       <c r="A576" s="13"/>
       <c r="B576" s="14"/>
       <c r="C576" s="14"/>
-      <c r="D576" s="43"/>
+      <c r="D576" s="42"/>
       <c r="E576" s="26"/>
       <c r="F576" s="26"/>
       <c r="G576" s="2"/>
@@ -22735,7 +22734,7 @@
       <c r="A577" s="13"/>
       <c r="B577" s="14"/>
       <c r="C577" s="14"/>
-      <c r="D577" s="43"/>
+      <c r="D577" s="42"/>
       <c r="E577" s="26"/>
       <c r="F577" s="26"/>
       <c r="G577" s="2"/>
@@ -22766,7 +22765,7 @@
       <c r="A578" s="13"/>
       <c r="B578" s="14"/>
       <c r="C578" s="14"/>
-      <c r="D578" s="43"/>
+      <c r="D578" s="42"/>
       <c r="E578" s="26"/>
       <c r="F578" s="26"/>
       <c r="G578" s="2"/>
@@ -22797,7 +22796,7 @@
       <c r="A579" s="13"/>
       <c r="B579" s="14"/>
       <c r="C579" s="14"/>
-      <c r="D579" s="43"/>
+      <c r="D579" s="42"/>
       <c r="E579" s="26"/>
       <c r="F579" s="26"/>
       <c r="G579" s="2"/>
@@ -22828,7 +22827,7 @@
       <c r="A580" s="13"/>
       <c r="B580" s="14"/>
       <c r="C580" s="14"/>
-      <c r="D580" s="43"/>
+      <c r="D580" s="42"/>
       <c r="E580" s="26"/>
       <c r="F580" s="26"/>
       <c r="G580" s="2"/>
@@ -22859,7 +22858,7 @@
       <c r="A581" s="13"/>
       <c r="B581" s="14"/>
       <c r="C581" s="14"/>
-      <c r="D581" s="43"/>
+      <c r="D581" s="42"/>
       <c r="E581" s="26"/>
       <c r="F581" s="26"/>
       <c r="G581" s="2"/>
@@ -22890,7 +22889,7 @@
       <c r="A582" s="13"/>
       <c r="B582" s="14"/>
       <c r="C582" s="14"/>
-      <c r="D582" s="43"/>
+      <c r="D582" s="42"/>
       <c r="E582" s="26"/>
       <c r="F582" s="26"/>
       <c r="G582" s="2"/>
@@ -22921,7 +22920,7 @@
       <c r="A583" s="13"/>
       <c r="B583" s="14"/>
       <c r="C583" s="14"/>
-      <c r="D583" s="43"/>
+      <c r="D583" s="42"/>
       <c r="E583" s="26"/>
       <c r="F583" s="26"/>
       <c r="G583" s="2"/>
@@ -22952,7 +22951,7 @@
       <c r="A584" s="13"/>
       <c r="B584" s="14"/>
       <c r="C584" s="14"/>
-      <c r="D584" s="43"/>
+      <c r="D584" s="42"/>
       <c r="E584" s="26"/>
       <c r="F584" s="26"/>
       <c r="G584" s="2"/>
@@ -22983,7 +22982,7 @@
       <c r="A585" s="13"/>
       <c r="B585" s="14"/>
       <c r="C585" s="14"/>
-      <c r="D585" s="43"/>
+      <c r="D585" s="42"/>
       <c r="E585" s="26"/>
       <c r="F585" s="26"/>
       <c r="G585" s="2"/>
@@ -23014,7 +23013,7 @@
       <c r="A586" s="13"/>
       <c r="B586" s="14"/>
       <c r="C586" s="14"/>
-      <c r="D586" s="43"/>
+      <c r="D586" s="42"/>
       <c r="E586" s="26"/>
       <c r="F586" s="26"/>
       <c r="G586" s="2"/>
@@ -23045,7 +23044,7 @@
       <c r="A587" s="13"/>
       <c r="B587" s="14"/>
       <c r="C587" s="14"/>
-      <c r="D587" s="43"/>
+      <c r="D587" s="42"/>
       <c r="E587" s="26"/>
       <c r="F587" s="26"/>
       <c r="G587" s="2"/>
@@ -23076,7 +23075,7 @@
       <c r="A588" s="13"/>
       <c r="B588" s="14"/>
       <c r="C588" s="14"/>
-      <c r="D588" s="43"/>
+      <c r="D588" s="42"/>
       <c r="E588" s="26"/>
       <c r="F588" s="26"/>
       <c r="G588" s="2"/>
@@ -23107,7 +23106,7 @@
       <c r="A589" s="13"/>
       <c r="B589" s="14"/>
       <c r="C589" s="14"/>
-      <c r="D589" s="43"/>
+      <c r="D589" s="42"/>
       <c r="E589" s="26"/>
       <c r="F589" s="26"/>
       <c r="G589" s="2"/>
@@ -23138,7 +23137,7 @@
       <c r="A590" s="13"/>
       <c r="B590" s="14"/>
       <c r="C590" s="14"/>
-      <c r="D590" s="43"/>
+      <c r="D590" s="42"/>
       <c r="E590" s="26"/>
       <c r="F590" s="26"/>
       <c r="G590" s="2"/>
@@ -23169,7 +23168,7 @@
       <c r="A591" s="13"/>
       <c r="B591" s="14"/>
       <c r="C591" s="14"/>
-      <c r="D591" s="43"/>
+      <c r="D591" s="42"/>
       <c r="E591" s="26"/>
       <c r="F591" s="26"/>
       <c r="G591" s="2"/>
@@ -23200,7 +23199,7 @@
       <c r="A592" s="13"/>
       <c r="B592" s="14"/>
       <c r="C592" s="14"/>
-      <c r="D592" s="43"/>
+      <c r="D592" s="42"/>
       <c r="E592" s="26"/>
       <c r="F592" s="26"/>
       <c r="G592" s="2"/>
@@ -23231,7 +23230,7 @@
       <c r="A593" s="13"/>
       <c r="B593" s="14"/>
       <c r="C593" s="14"/>
-      <c r="D593" s="43"/>
+      <c r="D593" s="42"/>
       <c r="E593" s="26"/>
       <c r="F593" s="26"/>
       <c r="G593" s="2"/>
@@ -23262,7 +23261,7 @@
       <c r="A594" s="13"/>
       <c r="B594" s="14"/>
       <c r="C594" s="14"/>
-      <c r="D594" s="43"/>
+      <c r="D594" s="42"/>
       <c r="E594" s="26"/>
       <c r="F594" s="26"/>
       <c r="G594" s="2"/>
@@ -23293,7 +23292,7 @@
       <c r="A595" s="13"/>
       <c r="B595" s="14"/>
       <c r="C595" s="14"/>
-      <c r="D595" s="43"/>
+      <c r="D595" s="42"/>
       <c r="E595" s="26"/>
       <c r="F595" s="26"/>
       <c r="G595" s="2"/>
@@ -23324,7 +23323,7 @@
       <c r="A596" s="13"/>
       <c r="B596" s="14"/>
       <c r="C596" s="14"/>
-      <c r="D596" s="43"/>
+      <c r="D596" s="42"/>
       <c r="E596" s="26"/>
       <c r="F596" s="26"/>
       <c r="G596" s="2"/>
@@ -23355,7 +23354,7 @@
       <c r="A597" s="13"/>
       <c r="B597" s="14"/>
       <c r="C597" s="14"/>
-      <c r="D597" s="43"/>
+      <c r="D597" s="42"/>
       <c r="E597" s="26"/>
       <c r="F597" s="26"/>
       <c r="G597" s="2"/>
@@ -23386,7 +23385,7 @@
       <c r="A598" s="13"/>
       <c r="B598" s="14"/>
       <c r="C598" s="14"/>
-      <c r="D598" s="43"/>
+      <c r="D598" s="42"/>
       <c r="E598" s="26"/>
       <c r="F598" s="26"/>
       <c r="G598" s="2"/>
@@ -23417,7 +23416,7 @@
       <c r="A599" s="13"/>
       <c r="B599" s="14"/>
       <c r="C599" s="14"/>
-      <c r="D599" s="43"/>
+      <c r="D599" s="42"/>
       <c r="E599" s="26"/>
       <c r="F599" s="26"/>
       <c r="G599" s="2"/>
@@ -23448,7 +23447,7 @@
       <c r="A600" s="13"/>
       <c r="B600" s="14"/>
       <c r="C600" s="14"/>
-      <c r="D600" s="43"/>
+      <c r="D600" s="42"/>
       <c r="E600" s="26"/>
       <c r="F600" s="26"/>
       <c r="G600" s="2"/>
@@ -23479,7 +23478,7 @@
       <c r="A601" s="13"/>
       <c r="B601" s="14"/>
       <c r="C601" s="14"/>
-      <c r="D601" s="43"/>
+      <c r="D601" s="42"/>
       <c r="E601" s="26"/>
       <c r="F601" s="26"/>
       <c r="G601" s="2"/>
@@ -23510,7 +23509,7 @@
       <c r="A602" s="13"/>
       <c r="B602" s="14"/>
       <c r="C602" s="14"/>
-      <c r="D602" s="43"/>
+      <c r="D602" s="42"/>
       <c r="E602" s="26"/>
       <c r="F602" s="26"/>
       <c r="G602" s="2"/>
@@ -23541,7 +23540,7 @@
       <c r="A603" s="13"/>
       <c r="B603" s="14"/>
       <c r="C603" s="14"/>
-      <c r="D603" s="43"/>
+      <c r="D603" s="42"/>
       <c r="E603" s="26"/>
       <c r="F603" s="26"/>
       <c r="G603" s="2"/>
@@ -23572,7 +23571,7 @@
       <c r="A604" s="13"/>
       <c r="B604" s="14"/>
       <c r="C604" s="14"/>
-      <c r="D604" s="43"/>
+      <c r="D604" s="42"/>
       <c r="E604" s="26"/>
       <c r="F604" s="26"/>
       <c r="G604" s="2"/>
@@ -23603,7 +23602,7 @@
       <c r="A605" s="13"/>
       <c r="B605" s="14"/>
       <c r="C605" s="14"/>
-      <c r="D605" s="43"/>
+      <c r="D605" s="42"/>
       <c r="E605" s="26"/>
       <c r="F605" s="26"/>
       <c r="G605" s="2"/>
@@ -23634,7 +23633,7 @@
       <c r="A606" s="13"/>
       <c r="B606" s="14"/>
       <c r="C606" s="14"/>
-      <c r="D606" s="43"/>
+      <c r="D606" s="42"/>
       <c r="E606" s="26"/>
       <c r="F606" s="26"/>
       <c r="G606" s="2"/>
@@ -23665,7 +23664,7 @@
       <c r="A607" s="13"/>
       <c r="B607" s="14"/>
       <c r="C607" s="14"/>
-      <c r="D607" s="43"/>
+      <c r="D607" s="42"/>
       <c r="E607" s="26"/>
       <c r="F607" s="26"/>
       <c r="G607" s="2"/>
@@ -23696,7 +23695,7 @@
       <c r="A608" s="13"/>
       <c r="B608" s="14"/>
       <c r="C608" s="14"/>
-      <c r="D608" s="43"/>
+      <c r="D608" s="42"/>
       <c r="E608" s="26"/>
       <c r="F608" s="26"/>
       <c r="G608" s="2"/>
@@ -23727,7 +23726,7 @@
       <c r="A609" s="13"/>
       <c r="B609" s="14"/>
       <c r="C609" s="14"/>
-      <c r="D609" s="43"/>
+      <c r="D609" s="42"/>
       <c r="E609" s="26"/>
       <c r="F609" s="26"/>
       <c r="G609" s="2"/>
@@ -23758,7 +23757,7 @@
       <c r="A610" s="13"/>
       <c r="B610" s="14"/>
       <c r="C610" s="14"/>
-      <c r="D610" s="43"/>
+      <c r="D610" s="42"/>
       <c r="E610" s="26"/>
       <c r="F610" s="26"/>
       <c r="G610" s="2"/>
@@ -23789,7 +23788,7 @@
       <c r="A611" s="13"/>
       <c r="B611" s="14"/>
       <c r="C611" s="14"/>
-      <c r="D611" s="43"/>
+      <c r="D611" s="42"/>
       <c r="E611" s="26"/>
       <c r="F611" s="26"/>
       <c r="G611" s="2"/>
@@ -23820,7 +23819,7 @@
       <c r="A612" s="13"/>
       <c r="B612" s="14"/>
       <c r="C612" s="14"/>
-      <c r="D612" s="43"/>
+      <c r="D612" s="42"/>
       <c r="E612" s="26"/>
       <c r="F612" s="26"/>
       <c r="G612" s="2"/>
@@ -23851,7 +23850,7 @@
       <c r="A613" s="13"/>
       <c r="B613" s="14"/>
       <c r="C613" s="14"/>
-      <c r="D613" s="43"/>
+      <c r="D613" s="42"/>
       <c r="E613" s="26"/>
       <c r="F613" s="26"/>
       <c r="G613" s="2"/>
@@ -23882,7 +23881,7 @@
       <c r="A614" s="13"/>
       <c r="B614" s="14"/>
       <c r="C614" s="14"/>
-      <c r="D614" s="43"/>
+      <c r="D614" s="42"/>
       <c r="E614" s="26"/>
       <c r="F614" s="26"/>
       <c r="G614" s="2"/>
@@ -23913,7 +23912,7 @@
       <c r="A615" s="13"/>
       <c r="B615" s="14"/>
       <c r="C615" s="14"/>
-      <c r="D615" s="43"/>
+      <c r="D615" s="42"/>
       <c r="E615" s="26"/>
       <c r="F615" s="26"/>
       <c r="G615" s="2"/>
@@ -23944,7 +23943,7 @@
       <c r="A616" s="13"/>
       <c r="B616" s="14"/>
       <c r="C616" s="14"/>
-      <c r="D616" s="43"/>
+      <c r="D616" s="42"/>
       <c r="E616" s="26"/>
       <c r="F616" s="26"/>
       <c r="G616" s="2"/>
@@ -23975,7 +23974,7 @@
       <c r="A617" s="13"/>
       <c r="B617" s="14"/>
       <c r="C617" s="14"/>
-      <c r="D617" s="43"/>
+      <c r="D617" s="42"/>
       <c r="E617" s="26"/>
       <c r="F617" s="26"/>
       <c r="G617" s="2"/>
@@ -24006,7 +24005,7 @@
       <c r="A618" s="13"/>
       <c r="B618" s="14"/>
       <c r="C618" s="14"/>
-      <c r="D618" s="43"/>
+      <c r="D618" s="42"/>
       <c r="E618" s="26"/>
       <c r="F618" s="26"/>
       <c r="G618" s="2"/>
@@ -24037,7 +24036,7 @@
       <c r="A619" s="13"/>
       <c r="B619" s="14"/>
       <c r="C619" s="14"/>
-      <c r="D619" s="43"/>
+      <c r="D619" s="42"/>
       <c r="E619" s="26"/>
       <c r="F619" s="26"/>
       <c r="G619" s="2"/>
@@ -24068,7 +24067,7 @@
       <c r="A620" s="13"/>
       <c r="B620" s="14"/>
       <c r="C620" s="14"/>
-      <c r="D620" s="43"/>
+      <c r="D620" s="42"/>
       <c r="E620" s="26"/>
       <c r="F620" s="26"/>
       <c r="G620" s="2"/>
@@ -24099,7 +24098,7 @@
       <c r="A621" s="13"/>
       <c r="B621" s="14"/>
       <c r="C621" s="14"/>
-      <c r="D621" s="43"/>
+      <c r="D621" s="42"/>
       <c r="E621" s="26"/>
       <c r="F621" s="26"/>
       <c r="G621" s="2"/>
@@ -24130,7 +24129,7 @@
       <c r="A622" s="13"/>
       <c r="B622" s="14"/>
       <c r="C622" s="14"/>
-      <c r="D622" s="43"/>
+      <c r="D622" s="42"/>
       <c r="E622" s="26"/>
       <c r="F622" s="26"/>
       <c r="G622" s="2"/>
@@ -24161,7 +24160,7 @@
       <c r="A623" s="13"/>
       <c r="B623" s="14"/>
       <c r="C623" s="14"/>
-      <c r="D623" s="43"/>
+      <c r="D623" s="42"/>
       <c r="E623" s="26"/>
       <c r="F623" s="26"/>
       <c r="G623" s="2"/>
@@ -24192,7 +24191,7 @@
       <c r="A624" s="13"/>
       <c r="B624" s="14"/>
       <c r="C624" s="14"/>
-      <c r="D624" s="43"/>
+      <c r="D624" s="42"/>
       <c r="E624" s="26"/>
       <c r="F624" s="26"/>
       <c r="G624" s="2"/>
@@ -24223,7 +24222,7 @@
       <c r="A625" s="13"/>
       <c r="B625" s="14"/>
       <c r="C625" s="14"/>
-      <c r="D625" s="43"/>
+      <c r="D625" s="42"/>
       <c r="E625" s="26"/>
       <c r="F625" s="26"/>
       <c r="G625" s="2"/>
@@ -24254,7 +24253,7 @@
       <c r="A626" s="13"/>
       <c r="B626" s="14"/>
       <c r="C626" s="14"/>
-      <c r="D626" s="43"/>
+      <c r="D626" s="42"/>
       <c r="E626" s="26"/>
       <c r="F626" s="26"/>
       <c r="G626" s="2"/>
@@ -24285,7 +24284,7 @@
       <c r="A627" s="13"/>
       <c r="B627" s="14"/>
       <c r="C627" s="14"/>
-      <c r="D627" s="43"/>
+      <c r="D627" s="42"/>
       <c r="E627" s="26"/>
       <c r="F627" s="26"/>
       <c r="G627" s="2"/>
@@ -24316,7 +24315,7 @@
       <c r="A628" s="13"/>
       <c r="B628" s="14"/>
       <c r="C628" s="14"/>
-      <c r="D628" s="43"/>
+      <c r="D628" s="42"/>
       <c r="E628" s="26"/>
       <c r="F628" s="26"/>
       <c r="G628" s="2"/>
@@ -24347,7 +24346,7 @@
       <c r="A629" s="13"/>
       <c r="B629" s="14"/>
       <c r="C629" s="14"/>
-      <c r="D629" s="43"/>
+      <c r="D629" s="42"/>
       <c r="E629" s="26"/>
       <c r="F629" s="26"/>
       <c r="G629" s="2"/>
@@ -24378,7 +24377,7 @@
       <c r="A630" s="13"/>
       <c r="B630" s="14"/>
       <c r="C630" s="14"/>
-      <c r="D630" s="43"/>
+      <c r="D630" s="42"/>
       <c r="E630" s="26"/>
       <c r="F630" s="26"/>
       <c r="G630" s="2"/>
@@ -24409,7 +24408,7 @@
       <c r="A631" s="13"/>
       <c r="B631" s="14"/>
       <c r="C631" s="14"/>
-      <c r="D631" s="43"/>
+      <c r="D631" s="42"/>
       <c r="E631" s="26"/>
       <c r="F631" s="26"/>
       <c r="G631" s="2"/>
@@ -24440,7 +24439,7 @@
       <c r="A632" s="13"/>
       <c r="B632" s="14"/>
       <c r="C632" s="14"/>
-      <c r="D632" s="43"/>
+      <c r="D632" s="42"/>
       <c r="E632" s="26"/>
       <c r="F632" s="26"/>
       <c r="G632" s="2"/>
@@ -24471,7 +24470,7 @@
       <c r="A633" s="13"/>
       <c r="B633" s="14"/>
       <c r="C633" s="14"/>
-      <c r="D633" s="43"/>
+      <c r="D633" s="42"/>
       <c r="E633" s="26"/>
       <c r="F633" s="26"/>
       <c r="G633" s="2"/>
@@ -24502,7 +24501,7 @@
       <c r="A634" s="13"/>
       <c r="B634" s="14"/>
       <c r="C634" s="14"/>
-      <c r="D634" s="43"/>
+      <c r="D634" s="42"/>
       <c r="E634" s="26"/>
       <c r="F634" s="26"/>
       <c r="G634" s="2"/>
@@ -24533,7 +24532,7 @@
       <c r="A635" s="13"/>
       <c r="B635" s="14"/>
       <c r="C635" s="14"/>
-      <c r="D635" s="43"/>
+      <c r="D635" s="42"/>
       <c r="E635" s="26"/>
       <c r="F635" s="26"/>
       <c r="G635" s="2"/>
@@ -24564,7 +24563,7 @@
       <c r="A636" s="13"/>
       <c r="B636" s="14"/>
       <c r="C636" s="14"/>
-      <c r="D636" s="43"/>
+      <c r="D636" s="42"/>
       <c r="E636" s="26"/>
       <c r="F636" s="26"/>
       <c r="G636" s="2"/>
@@ -24595,7 +24594,7 @@
       <c r="A637" s="13"/>
       <c r="B637" s="14"/>
       <c r="C637" s="14"/>
-      <c r="D637" s="43"/>
+      <c r="D637" s="42"/>
       <c r="E637" s="26"/>
       <c r="F637" s="26"/>
       <c r="G637" s="2"/>
@@ -24626,7 +24625,7 @@
       <c r="A638" s="13"/>
       <c r="B638" s="14"/>
       <c r="C638" s="14"/>
-      <c r="D638" s="43"/>
+      <c r="D638" s="42"/>
       <c r="E638" s="26"/>
       <c r="F638" s="26"/>
       <c r="G638" s="2"/>
@@ -24657,7 +24656,7 @@
       <c r="A639" s="13"/>
       <c r="B639" s="14"/>
       <c r="C639" s="14"/>
-      <c r="D639" s="43"/>
+      <c r="D639" s="42"/>
       <c r="E639" s="26"/>
       <c r="F639" s="26"/>
       <c r="G639" s="2"/>
@@ -24688,7 +24687,7 @@
       <c r="A640" s="13"/>
       <c r="B640" s="14"/>
       <c r="C640" s="14"/>
-      <c r="D640" s="43"/>
+      <c r="D640" s="42"/>
       <c r="E640" s="26"/>
       <c r="F640" s="26"/>
       <c r="G640" s="2"/>
@@ -24719,7 +24718,7 @@
       <c r="A641" s="13"/>
       <c r="B641" s="14"/>
       <c r="C641" s="14"/>
-      <c r="D641" s="43"/>
+      <c r="D641" s="42"/>
       <c r="E641" s="26"/>
       <c r="F641" s="26"/>
       <c r="G641" s="2"/>
@@ -24750,7 +24749,7 @@
       <c r="A642" s="13"/>
       <c r="B642" s="14"/>
       <c r="C642" s="14"/>
-      <c r="D642" s="43"/>
+      <c r="D642" s="42"/>
       <c r="E642" s="26"/>
       <c r="F642" s="26"/>
       <c r="G642" s="2"/>
@@ -24781,7 +24780,7 @@
       <c r="A643" s="13"/>
       <c r="B643" s="14"/>
       <c r="C643" s="14"/>
-      <c r="D643" s="43"/>
+      <c r="D643" s="42"/>
       <c r="E643" s="26"/>
       <c r="F643" s="26"/>
       <c r="G643" s="2"/>
@@ -24812,7 +24811,7 @@
       <c r="A644" s="13"/>
       <c r="B644" s="14"/>
       <c r="C644" s="14"/>
-      <c r="D644" s="43"/>
+      <c r="D644" s="42"/>
       <c r="E644" s="26"/>
       <c r="F644" s="26"/>
       <c r="G644" s="2"/>
@@ -24843,7 +24842,7 @@
       <c r="A645" s="13"/>
       <c r="B645" s="14"/>
       <c r="C645" s="14"/>
-      <c r="D645" s="43"/>
+      <c r="D645" s="42"/>
       <c r="E645" s="26"/>
       <c r="F645" s="26"/>
       <c r="G645" s="2"/>
@@ -24874,7 +24873,7 @@
       <c r="A646" s="13"/>
       <c r="B646" s="14"/>
       <c r="C646" s="14"/>
-      <c r="D646" s="43"/>
+      <c r="D646" s="42"/>
       <c r="E646" s="26"/>
       <c r="F646" s="26"/>
       <c r="G646" s="2"/>
@@ -24905,7 +24904,7 @@
       <c r="A647" s="13"/>
       <c r="B647" s="14"/>
       <c r="C647" s="14"/>
-      <c r="D647" s="43"/>
+      <c r="D647" s="42"/>
       <c r="E647" s="26"/>
       <c r="F647" s="26"/>
       <c r="G647" s="2"/>
@@ -24936,7 +24935,7 @@
       <c r="A648" s="13"/>
       <c r="B648" s="14"/>
       <c r="C648" s="14"/>
-      <c r="D648" s="43"/>
+      <c r="D648" s="42"/>
       <c r="E648" s="26"/>
       <c r="F648" s="26"/>
       <c r="G648" s="2"/>
@@ -24967,7 +24966,7 @@
       <c r="A649" s="13"/>
       <c r="B649" s="14"/>
       <c r="C649" s="14"/>
-      <c r="D649" s="43"/>
+      <c r="D649" s="42"/>
       <c r="E649" s="26"/>
       <c r="F649" s="26"/>
       <c r="G649" s="2"/>
@@ -24998,7 +24997,7 @@
       <c r="A650" s="13"/>
       <c r="B650" s="14"/>
       <c r="C650" s="14"/>
-      <c r="D650" s="43"/>
+      <c r="D650" s="42"/>
       <c r="E650" s="26"/>
       <c r="F650" s="26"/>
       <c r="G650" s="2"/>
@@ -25029,7 +25028,7 @@
       <c r="A651" s="13"/>
       <c r="B651" s="14"/>
       <c r="C651" s="14"/>
-      <c r="D651" s="43"/>
+      <c r="D651" s="42"/>
       <c r="E651" s="26"/>
       <c r="F651" s="26"/>
       <c r="G651" s="2"/>
@@ -25060,7 +25059,7 @@
       <c r="A652" s="13"/>
       <c r="B652" s="14"/>
       <c r="C652" s="14"/>
-      <c r="D652" s="43"/>
+      <c r="D652" s="42"/>
       <c r="E652" s="26"/>
       <c r="F652" s="26"/>
       <c r="G652" s="2"/>
@@ -25091,7 +25090,7 @@
       <c r="A653" s="13"/>
       <c r="B653" s="14"/>
       <c r="C653" s="14"/>
-      <c r="D653" s="43"/>
+      <c r="D653" s="42"/>
       <c r="E653" s="26"/>
       <c r="F653" s="26"/>
       <c r="G653" s="2"/>
@@ -25122,7 +25121,7 @@
       <c r="A654" s="13"/>
       <c r="B654" s="14"/>
       <c r="C654" s="14"/>
-      <c r="D654" s="43"/>
+      <c r="D654" s="42"/>
       <c r="E654" s="26"/>
       <c r="F654" s="26"/>
       <c r="G654" s="2"/>
@@ -25153,7 +25152,7 @@
       <c r="A655" s="13"/>
       <c r="B655" s="14"/>
       <c r="C655" s="14"/>
-      <c r="D655" s="43"/>
+      <c r="D655" s="42"/>
       <c r="E655" s="26"/>
       <c r="F655" s="26"/>
       <c r="G655" s="2"/>
@@ -25184,7 +25183,7 @@
       <c r="A656" s="13"/>
       <c r="B656" s="14"/>
       <c r="C656" s="14"/>
-      <c r="D656" s="43"/>
+      <c r="D656" s="42"/>
       <c r="E656" s="26"/>
       <c r="F656" s="26"/>
       <c r="G656" s="2"/>
@@ -25215,7 +25214,7 @@
       <c r="A657" s="13"/>
       <c r="B657" s="14"/>
       <c r="C657" s="14"/>
-      <c r="D657" s="43"/>
+      <c r="D657" s="42"/>
       <c r="E657" s="26"/>
       <c r="F657" s="26"/>
       <c r="G657" s="2"/>
@@ -25246,7 +25245,7 @@
       <c r="A658" s="13"/>
       <c r="B658" s="14"/>
       <c r="C658" s="14"/>
-      <c r="D658" s="43"/>
+      <c r="D658" s="42"/>
       <c r="E658" s="26"/>
       <c r="F658" s="26"/>
       <c r="G658" s="2"/>
@@ -25277,7 +25276,7 @@
       <c r="A659" s="13"/>
       <c r="B659" s="14"/>
       <c r="C659" s="14"/>
-      <c r="D659" s="43"/>
+      <c r="D659" s="42"/>
       <c r="E659" s="26"/>
       <c r="F659" s="26"/>
       <c r="G659" s="2"/>
@@ -25308,7 +25307,7 @@
       <c r="A660" s="13"/>
       <c r="B660" s="14"/>
       <c r="C660" s="14"/>
-      <c r="D660" s="43"/>
+      <c r="D660" s="42"/>
       <c r="E660" s="26"/>
       <c r="F660" s="26"/>
       <c r="G660" s="2"/>
@@ -25339,7 +25338,7 @@
       <c r="A661" s="13"/>
       <c r="B661" s="14"/>
       <c r="C661" s="14"/>
-      <c r="D661" s="43"/>
+      <c r="D661" s="42"/>
       <c r="E661" s="26"/>
       <c r="F661" s="26"/>
       <c r="G661" s="2"/>
@@ -25370,7 +25369,7 @@
       <c r="A662" s="13"/>
       <c r="B662" s="14"/>
       <c r="C662" s="14"/>
-      <c r="D662" s="43"/>
+      <c r="D662" s="42"/>
       <c r="E662" s="26"/>
       <c r="F662" s="26"/>
       <c r="G662" s="2"/>
@@ -25401,7 +25400,7 @@
       <c r="A663" s="13"/>
       <c r="B663" s="14"/>
       <c r="C663" s="14"/>
-      <c r="D663" s="43"/>
+      <c r="D663" s="42"/>
       <c r="E663" s="26"/>
       <c r="F663" s="26"/>
       <c r="G663" s="2"/>
@@ -25432,7 +25431,7 @@
       <c r="A664" s="13"/>
       <c r="B664" s="14"/>
       <c r="C664" s="14"/>
-      <c r="D664" s="43"/>
+      <c r="D664" s="42"/>
       <c r="E664" s="26"/>
       <c r="F664" s="26"/>
       <c r="G664" s="2"/>
@@ -25463,7 +25462,7 @@
       <c r="A665" s="13"/>
       <c r="B665" s="14"/>
       <c r="C665" s="14"/>
-      <c r="D665" s="43"/>
+      <c r="D665" s="42"/>
       <c r="E665" s="26"/>
       <c r="F665" s="26"/>
       <c r="G665" s="2"/>
@@ -25494,7 +25493,7 @@
       <c r="A666" s="13"/>
       <c r="B666" s="14"/>
       <c r="C666" s="14"/>
-      <c r="D666" s="43"/>
+      <c r="D666" s="42"/>
       <c r="E666" s="26"/>
       <c r="F666" s="26"/>
       <c r="G666" s="2"/>
@@ -25525,7 +25524,7 @@
       <c r="A667" s="13"/>
       <c r="B667" s="14"/>
       <c r="C667" s="14"/>
-      <c r="D667" s="43"/>
+      <c r="D667" s="42"/>
       <c r="E667" s="26"/>
       <c r="F667" s="26"/>
       <c r="G667" s="2"/>
@@ -25556,7 +25555,7 @@
       <c r="A668" s="13"/>
       <c r="B668" s="14"/>
       <c r="C668" s="14"/>
-      <c r="D668" s="43"/>
+      <c r="D668" s="42"/>
       <c r="E668" s="26"/>
       <c r="F668" s="26"/>
       <c r="G668" s="2"/>
@@ -25587,7 +25586,7 @@
       <c r="A669" s="13"/>
       <c r="B669" s="14"/>
       <c r="C669" s="14"/>
-      <c r="D669" s="43"/>
+      <c r="D669" s="42"/>
       <c r="E669" s="26"/>
       <c r="F669" s="26"/>
       <c r="G669" s="2"/>
@@ -25618,7 +25617,7 @@
       <c r="A670" s="13"/>
       <c r="B670" s="14"/>
       <c r="C670" s="14"/>
-      <c r="D670" s="43"/>
+      <c r="D670" s="42"/>
       <c r="E670" s="26"/>
       <c r="F670" s="26"/>
       <c r="G670" s="2"/>
@@ -25649,7 +25648,7 @@
       <c r="A671" s="13"/>
       <c r="B671" s="14"/>
       <c r="C671" s="14"/>
-      <c r="D671" s="43"/>
+      <c r="D671" s="42"/>
       <c r="E671" s="26"/>
       <c r="F671" s="26"/>
       <c r="G671" s="2"/>
@@ -25680,7 +25679,7 @@
       <c r="A672" s="13"/>
       <c r="B672" s="14"/>
       <c r="C672" s="14"/>
-      <c r="D672" s="43"/>
+      <c r="D672" s="42"/>
       <c r="E672" s="26"/>
       <c r="F672" s="26"/>
       <c r="G672" s="2"/>
@@ -25711,7 +25710,7 @@
       <c r="A673" s="13"/>
       <c r="B673" s="14"/>
       <c r="C673" s="14"/>
-      <c r="D673" s="43"/>
+      <c r="D673" s="42"/>
       <c r="E673" s="26"/>
       <c r="F673" s="26"/>
       <c r="G673" s="2"/>
@@ -25742,7 +25741,7 @@
       <c r="A674" s="13"/>
       <c r="B674" s="14"/>
       <c r="C674" s="14"/>
-      <c r="D674" s="43"/>
+      <c r="D674" s="42"/>
       <c r="E674" s="26"/>
       <c r="F674" s="26"/>
       <c r="G674" s="2"/>
@@ -25773,7 +25772,7 @@
       <c r="A675" s="13"/>
       <c r="B675" s="14"/>
       <c r="C675" s="14"/>
-      <c r="D675" s="43"/>
+      <c r="D675" s="42"/>
       <c r="E675" s="26"/>
       <c r="F675" s="26"/>
       <c r="G675" s="2"/>
@@ -25804,7 +25803,7 @@
       <c r="A676" s="13"/>
       <c r="B676" s="14"/>
       <c r="C676" s="14"/>
-      <c r="D676" s="43"/>
+      <c r="D676" s="42"/>
       <c r="E676" s="26"/>
       <c r="F676" s="26"/>
       <c r="G676" s="2"/>
@@ -25835,7 +25834,7 @@
       <c r="A677" s="13"/>
       <c r="B677" s="14"/>
       <c r="C677" s="14"/>
-      <c r="D677" s="43"/>
+      <c r="D677" s="42"/>
       <c r="E677" s="26"/>
       <c r="F677" s="26"/>
       <c r="G677" s="2"/>
@@ -25866,7 +25865,7 @@
       <c r="A678" s="13"/>
       <c r="B678" s="14"/>
       <c r="C678" s="14"/>
-      <c r="D678" s="43"/>
+      <c r="D678" s="42"/>
       <c r="E678" s="26"/>
       <c r="F678" s="26"/>
       <c r="G678" s="2"/>
@@ -25897,7 +25896,7 @@
       <c r="A679" s="13"/>
       <c r="B679" s="14"/>
       <c r="C679" s="14"/>
-      <c r="D679" s="43"/>
+      <c r="D679" s="42"/>
       <c r="E679" s="26"/>
       <c r="F679" s="26"/>
       <c r="G679" s="2"/>
@@ -25928,7 +25927,7 @@
       <c r="A680" s="13"/>
       <c r="B680" s="14"/>
       <c r="C680" s="14"/>
-      <c r="D680" s="43"/>
+      <c r="D680" s="42"/>
       <c r="E680" s="26"/>
       <c r="F680" s="26"/>
       <c r="G680" s="2"/>
@@ -25959,7 +25958,7 @@
       <c r="A681" s="13"/>
       <c r="B681" s="14"/>
       <c r="C681" s="14"/>
-      <c r="D681" s="43"/>
+      <c r="D681" s="42"/>
       <c r="E681" s="26"/>
       <c r="F681" s="26"/>
       <c r="G681" s="2"/>
@@ -25990,7 +25989,7 @@
       <c r="A682" s="13"/>
       <c r="B682" s="14"/>
       <c r="C682" s="14"/>
-      <c r="D682" s="43"/>
+      <c r="D682" s="42"/>
       <c r="E682" s="26"/>
       <c r="F682" s="26"/>
       <c r="G682" s="2"/>
@@ -26021,7 +26020,7 @@
       <c r="A683" s="13"/>
       <c r="B683" s="14"/>
       <c r="C683" s="14"/>
-      <c r="D683" s="43"/>
+      <c r="D683" s="42"/>
       <c r="E683" s="26"/>
       <c r="F683" s="26"/>
       <c r="G683" s="2"/>
@@ -26052,7 +26051,7 @@
       <c r="A684" s="13"/>
       <c r="B684" s="14"/>
       <c r="C684" s="14"/>
-      <c r="D684" s="43"/>
+      <c r="D684" s="42"/>
       <c r="E684" s="26"/>
       <c r="F684" s="26"/>
       <c r="G684" s="2"/>
@@ -26083,7 +26082,7 @@
       <c r="A685" s="13"/>
       <c r="B685" s="14"/>
       <c r="C685" s="14"/>
-      <c r="D685" s="43"/>
+      <c r="D685" s="42"/>
       <c r="E685" s="26"/>
       <c r="F685" s="26"/>
       <c r="G685" s="2"/>
@@ -26114,7 +26113,7 @@
       <c r="A686" s="13"/>
       <c r="B686" s="14"/>
       <c r="C686" s="14"/>
-      <c r="D686" s="43"/>
+      <c r="D686" s="42"/>
       <c r="E686" s="26"/>
       <c r="F686" s="26"/>
       <c r="G686" s="2"/>
@@ -26145,7 +26144,7 @@
       <c r="A687" s="13"/>
       <c r="B687" s="14"/>
       <c r="C687" s="14"/>
-      <c r="D687" s="43"/>
+      <c r="D687" s="42"/>
       <c r="E687" s="26"/>
       <c r="F687" s="26"/>
       <c r="G687" s="2"/>
@@ -26176,7 +26175,7 @@
       <c r="A688" s="13"/>
       <c r="B688" s="14"/>
       <c r="C688" s="14"/>
-      <c r="D688" s="43"/>
+      <c r="D688" s="42"/>
       <c r="E688" s="26"/>
       <c r="F688" s="26"/>
       <c r="G688" s="2"/>
@@ -26207,7 +26206,7 @@
       <c r="A689" s="13"/>
       <c r="B689" s="14"/>
       <c r="C689" s="14"/>
-      <c r="D689" s="43"/>
+      <c r="D689" s="42"/>
       <c r="E689" s="26"/>
       <c r="F689" s="26"/>
       <c r="G689" s="2"/>
@@ -26238,7 +26237,7 @@
       <c r="A690" s="13"/>
       <c r="B690" s="14"/>
       <c r="C690" s="14"/>
-      <c r="D690" s="43"/>
+      <c r="D690" s="42"/>
       <c r="E690" s="26"/>
       <c r="F690" s="26"/>
       <c r="G690" s="2"/>
@@ -26269,7 +26268,7 @@
       <c r="A691" s="13"/>
       <c r="B691" s="14"/>
       <c r="C691" s="14"/>
-      <c r="D691" s="43"/>
+      <c r="D691" s="42"/>
       <c r="E691" s="26"/>
       <c r="F691" s="26"/>
       <c r="G691" s="2"/>
@@ -26300,7 +26299,7 @@
       <c r="A692" s="13"/>
       <c r="B692" s="14"/>
       <c r="C692" s="14"/>
-      <c r="D692" s="43"/>
+      <c r="D692" s="42"/>
       <c r="E692" s="26"/>
       <c r="F692" s="26"/>
       <c r="G692" s="2"/>
@@ -26331,7 +26330,7 @@
       <c r="A693" s="13"/>
       <c r="B693" s="14"/>
       <c r="C693" s="14"/>
-      <c r="D693" s="43"/>
+      <c r="D693" s="42"/>
       <c r="E693" s="26"/>
       <c r="F693" s="26"/>
       <c r="G693" s="2"/>
@@ -26362,7 +26361,7 @@
       <c r="A694" s="13"/>
       <c r="B694" s="14"/>
       <c r="C694" s="14"/>
-      <c r="D694" s="43"/>
+      <c r="D694" s="42"/>
       <c r="E694" s="26"/>
       <c r="F694" s="26"/>
       <c r="G694" s="2"/>
@@ -26393,7 +26392,7 @@
       <c r="A695" s="13"/>
       <c r="B695" s="14"/>
       <c r="C695" s="14"/>
-      <c r="D695" s="43"/>
+      <c r="D695" s="42"/>
       <c r="E695" s="26"/>
       <c r="F695" s="26"/>
       <c r="G695" s="2"/>
@@ -26424,7 +26423,7 @@
       <c r="A696" s="13"/>
       <c r="B696" s="14"/>
       <c r="C696" s="14"/>
-      <c r="D696" s="43"/>
+      <c r="D696" s="42"/>
       <c r="E696" s="26"/>
       <c r="F696" s="26"/>
       <c r="G696" s="2"/>
@@ -26455,7 +26454,7 @@
       <c r="A697" s="13"/>
       <c r="B697" s="14"/>
       <c r="C697" s="14"/>
-      <c r="D697" s="43"/>
+      <c r="D697" s="42"/>
       <c r="E697" s="26"/>
       <c r="F697" s="26"/>
       <c r="G697" s="2"/>
@@ -26486,7 +26485,7 @@
       <c r="A698" s="13"/>
       <c r="B698" s="14"/>
       <c r="C698" s="14"/>
-      <c r="D698" s="43"/>
+      <c r="D698" s="42"/>
       <c r="E698" s="26"/>
       <c r="F698" s="26"/>
       <c r="G698" s="2"/>
@@ -26517,7 +26516,7 @@
       <c r="A699" s="13"/>
       <c r="B699" s="14"/>
       <c r="C699" s="14"/>
-      <c r="D699" s="43"/>
+      <c r="D699" s="42"/>
       <c r="E699" s="26"/>
       <c r="F699" s="26"/>
       <c r="G699" s="2"/>
@@ -26548,7 +26547,7 @@
       <c r="A700" s="13"/>
       <c r="B700" s="14"/>
       <c r="C700" s="14"/>
-      <c r="D700" s="43"/>
+      <c r="D700" s="42"/>
       <c r="E700" s="26"/>
       <c r="F700" s="26"/>
       <c r="G700" s="2"/>
@@ -26579,7 +26578,7 @@
       <c r="A701" s="13"/>
       <c r="B701" s="14"/>
       <c r="C701" s="14"/>
-      <c r="D701" s="43"/>
+      <c r="D701" s="42"/>
       <c r="E701" s="26"/>
       <c r="F701" s="26"/>
       <c r="G701" s="2"/>
@@ -26610,7 +26609,7 @@
       <c r="A702" s="13"/>
       <c r="B702" s="14"/>
       <c r="C702" s="14"/>
-      <c r="D702" s="43"/>
+      <c r="D702" s="42"/>
       <c r="E702" s="26"/>
       <c r="F702" s="26"/>
       <c r="G702" s="2"/>
@@ -26641,7 +26640,7 @@
       <c r="A703" s="13"/>
       <c r="B703" s="14"/>
       <c r="C703" s="14"/>
-      <c r="D703" s="43"/>
+      <c r="D703" s="42"/>
       <c r="E703" s="26"/>
       <c r="F703" s="26"/>
       <c r="G703" s="2"/>
@@ -26672,7 +26671,7 @@
       <c r="A704" s="13"/>
       <c r="B704" s="14"/>
       <c r="C704" s="14"/>
-      <c r="D704" s="43"/>
+      <c r="D704" s="42"/>
       <c r="E704" s="26"/>
       <c r="F704" s="26"/>
       <c r="G704" s="2"/>
@@ -26703,7 +26702,7 @@
       <c r="A705" s="13"/>
       <c r="B705" s="14"/>
       <c r="C705" s="14"/>
-      <c r="D705" s="43"/>
+      <c r="D705" s="42"/>
       <c r="E705" s="26"/>
       <c r="F705" s="26"/>
       <c r="G705" s="2"/>
@@ -26734,7 +26733,7 @@
       <c r="A706" s="13"/>
       <c r="B706" s="14"/>
       <c r="C706" s="14"/>
-      <c r="D706" s="43"/>
+      <c r="D706" s="42"/>
       <c r="E706" s="26"/>
       <c r="F706" s="26"/>
       <c r="G706" s="2"/>
@@ -26765,7 +26764,7 @@
       <c r="A707" s="13"/>
       <c r="B707" s="14"/>
       <c r="C707" s="14"/>
-      <c r="D707" s="43"/>
+      <c r="D707" s="42"/>
       <c r="E707" s="26"/>
       <c r="F707" s="26"/>
       <c r="G707" s="2"/>
@@ -26796,7 +26795,7 @@
       <c r="A708" s="13"/>
       <c r="B708" s="14"/>
       <c r="C708" s="14"/>
-      <c r="D708" s="43"/>
+      <c r="D708" s="42"/>
       <c r="E708" s="26"/>
       <c r="F708" s="26"/>
       <c r="G708" s="2"/>
@@ -26827,7 +26826,7 @@
       <c r="A709" s="13"/>
       <c r="B709" s="14"/>
       <c r="C709" s="14"/>
-      <c r="D709" s="43"/>
+      <c r="D709" s="42"/>
       <c r="E709" s="26"/>
       <c r="F709" s="26"/>
       <c r="G709" s="2"/>
@@ -26858,7 +26857,7 @@
       <c r="A710" s="13"/>
       <c r="B710" s="14"/>
       <c r="C710" s="14"/>
-      <c r="D710" s="43"/>
+      <c r="D710" s="42"/>
       <c r="E710" s="26"/>
       <c r="F710" s="26"/>
       <c r="G710" s="2"/>
@@ -26889,7 +26888,7 @@
       <c r="A711" s="13"/>
       <c r="B711" s="14"/>
       <c r="C711" s="14"/>
-      <c r="D711" s="43"/>
+      <c r="D711" s="42"/>
       <c r="E711" s="26"/>
       <c r="F711" s="26"/>
       <c r="G711" s="2"/>
@@ -26920,7 +26919,7 @@
       <c r="A712" s="13"/>
       <c r="B712" s="14"/>
       <c r="C712" s="14"/>
-      <c r="D712" s="43"/>
+      <c r="D712" s="42"/>
       <c r="E712" s="26"/>
       <c r="F712" s="26"/>
       <c r="G712" s="2"/>
@@ -26951,7 +26950,7 @@
       <c r="A713" s="13"/>
       <c r="B713" s="14"/>
       <c r="C713" s="14"/>
-      <c r="D713" s="43"/>
+      <c r="D713" s="42"/>
       <c r="E713" s="26"/>
       <c r="F713" s="26"/>
       <c r="G713" s="2"/>
@@ -26982,7 +26981,7 @@
       <c r="A714" s="13"/>
       <c r="B714" s="14"/>
       <c r="C714" s="14"/>
-      <c r="D714" s="43"/>
+      <c r="D714" s="42"/>
       <c r="E714" s="26"/>
       <c r="F714" s="26"/>
       <c r="G714" s="2"/>
@@ -27013,7 +27012,7 @@
       <c r="A715" s="13"/>
       <c r="B715" s="14"/>
       <c r="C715" s="14"/>
-      <c r="D715" s="43"/>
+      <c r="D715" s="42"/>
       <c r="E715" s="26"/>
       <c r="F715" s="26"/>
       <c r="G715" s="2"/>
@@ -27044,7 +27043,7 @@
       <c r="A716" s="13"/>
       <c r="B716" s="14"/>
       <c r="C716" s="14"/>
-      <c r="D716" s="43"/>
+      <c r="D716" s="42"/>
       <c r="E716" s="26"/>
       <c r="F716" s="26"/>
       <c r="G716" s="2"/>
@@ -27075,7 +27074,7 @@
       <c r="A717" s="13"/>
       <c r="B717" s="14"/>
       <c r="C717" s="14"/>
-      <c r="D717" s="43"/>
+      <c r="D717" s="42"/>
       <c r="E717" s="26"/>
       <c r="F717" s="26"/>
       <c r="G717" s="2"/>
@@ -27106,7 +27105,7 @@
       <c r="A718" s="13"/>
       <c r="B718" s="14"/>
       <c r="C718" s="14"/>
-      <c r="D718" s="43"/>
+      <c r="D718" s="42"/>
       <c r="E718" s="26"/>
       <c r="F718" s="26"/>
       <c r="G718" s="2"/>
@@ -27137,7 +27136,7 @@
       <c r="A719" s="13"/>
       <c r="B719" s="14"/>
       <c r="C719" s="14"/>
-      <c r="D719" s="43"/>
+      <c r="D719" s="42"/>
       <c r="E719" s="26"/>
       <c r="F719" s="26"/>
       <c r="G719" s="2"/>
@@ -27168,7 +27167,7 @@
       <c r="A720" s="13"/>
       <c r="B720" s="14"/>
       <c r="C720" s="14"/>
-      <c r="D720" s="43"/>
+      <c r="D720" s="42"/>
       <c r="E720" s="26"/>
       <c r="F720" s="26"/>
       <c r="G720" s="2"/>
@@ -27199,7 +27198,7 @@
       <c r="A721" s="13"/>
       <c r="B721" s="14"/>
       <c r="C721" s="14"/>
-      <c r="D721" s="43"/>
+      <c r="D721" s="42"/>
       <c r="E721" s="26"/>
       <c r="F721" s="26"/>
       <c r="G721" s="2"/>
@@ -27230,7 +27229,7 @@
       <c r="A722" s="13"/>
       <c r="B722" s="14"/>
       <c r="C722" s="14"/>
-      <c r="D722" s="43"/>
+      <c r="D722" s="42"/>
       <c r="E722" s="26"/>
       <c r="F722" s="26"/>
       <c r="G722" s="2"/>
@@ -27261,7 +27260,7 @@
       <c r="A723" s="13"/>
       <c r="B723" s="14"/>
       <c r="C723" s="14"/>
-      <c r="D723" s="43"/>
+      <c r="D723" s="42"/>
       <c r="E723" s="26"/>
       <c r="F723" s="26"/>
       <c r="G723" s="2"/>
@@ -27292,7 +27291,7 @@
       <c r="A724" s="13"/>
       <c r="B724" s="14"/>
       <c r="C724" s="14"/>
-      <c r="D724" s="43"/>
+      <c r="D724" s="42"/>
       <c r="E724" s="26"/>
       <c r="F724" s="26"/>
       <c r="G724" s="2"/>
@@ -27323,7 +27322,7 @@
       <c r="A725" s="13"/>
       <c r="B725" s="14"/>
       <c r="C725" s="14"/>
-      <c r="D725" s="43"/>
+      <c r="D725" s="42"/>
       <c r="E725" s="26"/>
       <c r="F725" s="26"/>
       <c r="G725" s="2"/>
@@ -27354,7 +27353,7 @@
       <c r="A726" s="13"/>
       <c r="B726" s="14"/>
       <c r="C726" s="14"/>
-      <c r="D726" s="43"/>
+      <c r="D726" s="42"/>
       <c r="E726" s="26"/>
       <c r="F726" s="26"/>
       <c r="G726" s="2"/>
@@ -27385,7 +27384,7 @@
       <c r="A727" s="13"/>
       <c r="B727" s="14"/>
       <c r="C727" s="14"/>
-      <c r="D727" s="43"/>
+      <c r="D727" s="42"/>
       <c r="E727" s="26"/>
       <c r="F727" s="26"/>
       <c r="G727" s="2"/>
@@ -27416,7 +27415,7 @@
       <c r="A728" s="13"/>
       <c r="B728" s="14"/>
       <c r="C728" s="14"/>
-      <c r="D728" s="43"/>
+      <c r="D728" s="42"/>
       <c r="E728" s="26"/>
       <c r="F728" s="26"/>
       <c r="G728" s="2"/>
@@ -27447,7 +27446,7 @@
       <c r="A729" s="13"/>
       <c r="B729" s="14"/>
       <c r="C729" s="14"/>
-      <c r="D729" s="43"/>
+      <c r="D729" s="42"/>
       <c r="E729" s="26"/>
       <c r="F729" s="26"/>
       <c r="G729" s="2"/>
@@ -27478,7 +27477,7 @@
       <c r="A730" s="13"/>
       <c r="B730" s="14"/>
       <c r="C730" s="14"/>
-      <c r="D730" s="43"/>
+      <c r="D730" s="42"/>
       <c r="E730" s="26"/>
       <c r="F730" s="26"/>
       <c r="G730" s="2"/>
@@ -27509,7 +27508,7 @@
       <c r="A731" s="13"/>
       <c r="B731" s="14"/>
       <c r="C731" s="14"/>
-      <c r="D731" s="43"/>
+      <c r="D731" s="42"/>
       <c r="E731" s="26"/>
       <c r="F731" s="26"/>
       <c r="G731" s="2"/>
@@ -27540,7 +27539,7 @@
       <c r="A732" s="13"/>
       <c r="B732" s="14"/>
       <c r="C732" s="14"/>
-      <c r="D732" s="43"/>
+      <c r="D732" s="42"/>
       <c r="E732" s="26"/>
       <c r="F732" s="26"/>
       <c r="G732" s="2"/>
@@ -27571,7 +27570,7 @@
       <c r="A733" s="13"/>
       <c r="B733" s="14"/>
       <c r="C733" s="14"/>
-      <c r="D733" s="43"/>
+      <c r="D733" s="42"/>
       <c r="E733" s="26"/>
       <c r="F733" s="26"/>
       <c r="G733" s="2"/>
@@ -27602,7 +27601,7 @@
       <c r="A734" s="13"/>
       <c r="B734" s="14"/>
       <c r="C734" s="14"/>
-      <c r="D734" s="43"/>
+      <c r="D734" s="42"/>
       <c r="E734" s="26"/>
       <c r="F734" s="26"/>
       <c r="G734" s="2"/>
@@ -27633,7 +27632,7 @@
       <c r="A735" s="13"/>
       <c r="B735" s="14"/>
       <c r="C735" s="14"/>
-      <c r="D735" s="43"/>
+      <c r="D735" s="42"/>
       <c r="E735" s="26"/>
       <c r="F735" s="26"/>
       <c r="G735" s="2"/>
@@ -27664,7 +27663,7 @@
       <c r="A736" s="13"/>
       <c r="B736" s="14"/>
       <c r="C736" s="14"/>
-      <c r="D736" s="43"/>
+      <c r="D736" s="42"/>
       <c r="E736" s="26"/>
       <c r="F736" s="26"/>
       <c r="G736" s="2"/>
@@ -27695,7 +27694,7 @@
       <c r="A737" s="13"/>
       <c r="B737" s="14"/>
       <c r="C737" s="14"/>
-      <c r="D737" s="43"/>
+      <c r="D737" s="42"/>
       <c r="E737" s="26"/>
       <c r="F737" s="26"/>
       <c r="G737" s="2"/>
@@ -27726,7 +27725,7 @@
       <c r="A738" s="13"/>
       <c r="B738" s="14"/>
       <c r="C738" s="14"/>
-      <c r="D738" s="43"/>
+      <c r="D738" s="42"/>
       <c r="E738" s="26"/>
       <c r="F738" s="26"/>
       <c r="G738" s="2"/>
@@ -27757,7 +27756,7 @@
       <c r="A739" s="13"/>
       <c r="B739" s="14"/>
       <c r="C739" s="14"/>
-      <c r="D739" s="43"/>
+      <c r="D739" s="42"/>
       <c r="E739" s="26"/>
       <c r="F739" s="26"/>
       <c r="G739" s="2"/>
@@ -27788,7 +27787,7 @@
       <c r="A740" s="13"/>
       <c r="B740" s="14"/>
       <c r="C740" s="14"/>
-      <c r="D740" s="43"/>
+      <c r="D740" s="42"/>
       <c r="E740" s="26"/>
       <c r="F740" s="26"/>
       <c r="G740" s="2"/>
@@ -27819,7 +27818,7 @@
       <c r="A741" s="13"/>
       <c r="B741" s="14"/>
       <c r="C741" s="14"/>
-      <c r="D741" s="43"/>
+      <c r="D741" s="42"/>
       <c r="E741" s="26"/>
       <c r="F741" s="26"/>
       <c r="G741" s="2"/>
@@ -27850,7 +27849,7 @@
       <c r="A742" s="13"/>
       <c r="B742" s="14"/>
       <c r="C742" s="14"/>
-      <c r="D742" s="43"/>
+      <c r="D742" s="42"/>
       <c r="E742" s="26"/>
       <c r="F742" s="26"/>
       <c r="G742" s="2"/>
@@ -27881,7 +27880,7 @@
       <c r="A743" s="13"/>
       <c r="B743" s="14"/>
       <c r="C743" s="14"/>
-      <c r="D743" s="43"/>
+      <c r="D743" s="42"/>
       <c r="E743" s="26"/>
       <c r="F743" s="26"/>
       <c r="G743" s="2"/>
@@ -27912,7 +27911,7 @@
       <c r="A744" s="13"/>
       <c r="B744" s="14"/>
       <c r="C744" s="14"/>
-      <c r="D744" s="43"/>
+      <c r="D744" s="42"/>
       <c r="E744" s="26"/>
       <c r="F744" s="26"/>
       <c r="G744" s="2"/>
@@ -27943,7 +27942,7 @@
       <c r="A745" s="13"/>
       <c r="B745" s="14"/>
       <c r="C745" s="14"/>
-      <c r="D745" s="43"/>
+      <c r="D745" s="42"/>
       <c r="E745" s="26"/>
       <c r="F745" s="26"/>
       <c r="G745" s="2"/>
@@ -27974,7 +27973,7 @@
       <c r="A746" s="13"/>
       <c r="B746" s="14"/>
       <c r="C746" s="14"/>
-      <c r="D746" s="43"/>
+      <c r="D746" s="42"/>
       <c r="E746" s="26"/>
       <c r="F746" s="26"/>
       <c r="G746" s="2"/>
@@ -28005,7 +28004,7 @@
       <c r="A747" s="13"/>
       <c r="B747" s="14"/>
       <c r="C747" s="14"/>
-      <c r="D747" s="43"/>
+      <c r="D747" s="42"/>
       <c r="E747" s="26"/>
       <c r="F747" s="26"/>
       <c r="G747" s="2"/>
@@ -28036,7 +28035,7 @@
       <c r="A748" s="13"/>
       <c r="B748" s="14"/>
       <c r="C748" s="14"/>
-      <c r="D748" s="43"/>
+      <c r="D748" s="42"/>
       <c r="E748" s="26"/>
       <c r="F748" s="26"/>
       <c r="G748" s="2"/>
@@ -28067,7 +28066,7 @@
       <c r="A749" s="13"/>
       <c r="B749" s="14"/>
       <c r="C749" s="14"/>
-      <c r="D749" s="43"/>
+      <c r="D749" s="42"/>
       <c r="E749" s="26"/>
       <c r="F749" s="26"/>
       <c r="G749" s="2"/>
@@ -28098,7 +28097,7 @@
       <c r="A750" s="13"/>
       <c r="B750" s="14"/>
       <c r="C750" s="14"/>
-      <c r="D750" s="43"/>
+      <c r="D750" s="42"/>
       <c r="E750" s="26"/>
       <c r="F750" s="26"/>
       <c r="G750" s="2"/>
@@ -28129,7 +28128,7 @@
       <c r="A751" s="13"/>
       <c r="B751" s="14"/>
       <c r="C751" s="14"/>
-      <c r="D751" s="43"/>
+      <c r="D751" s="42"/>
       <c r="E751" s="26"/>
       <c r="F751" s="26"/>
       <c r="G751" s="2"/>
@@ -28160,7 +28159,7 @@
       <c r="A752" s="13"/>
       <c r="B752" s="14"/>
       <c r="C752" s="14"/>
-      <c r="D752" s="43"/>
+      <c r="D752" s="42"/>
       <c r="E752" s="26"/>
       <c r="F752" s="26"/>
       <c r="G752" s="2"/>
@@ -28191,7 +28190,7 @@
       <c r="A753" s="13"/>
       <c r="B753" s="14"/>
       <c r="C753" s="14"/>
-      <c r="D753" s="43"/>
+      <c r="D753" s="42"/>
       <c r="E753" s="26"/>
       <c r="F753" s="26"/>
       <c r="G753" s="2"/>
@@ -28222,7 +28221,7 @@
       <c r="A754" s="13"/>
       <c r="B754" s="14"/>
       <c r="C754" s="14"/>
-      <c r="D754" s="43"/>
+      <c r="D754" s="42"/>
       <c r="E754" s="26"/>
       <c r="F754" s="26"/>
       <c r="G754" s="2"/>
@@ -28253,7 +28252,7 @@
       <c r="A755" s="13"/>
       <c r="B755" s="14"/>
       <c r="C755" s="14"/>
-      <c r="D755" s="43"/>
+      <c r="D755" s="42"/>
       <c r="E755" s="26"/>
       <c r="F755" s="26"/>
       <c r="G755" s="2"/>
@@ -28284,7 +28283,7 @@
       <c r="A756" s="13"/>
       <c r="B756" s="14"/>
       <c r="C756" s="14"/>
-      <c r="D756" s="43"/>
+      <c r="D756" s="42"/>
       <c r="E756" s="26"/>
       <c r="F756" s="26"/>
       <c r="G756" s="2"/>
@@ -28315,7 +28314,7 @@
       <c r="A757" s="13"/>
       <c r="B757" s="14"/>
       <c r="C757" s="14"/>
-      <c r="D757" s="43"/>
+      <c r="D757" s="42"/>
       <c r="E757" s="26"/>
       <c r="F757" s="26"/>
       <c r="G757" s="2"/>
@@ -28346,7 +28345,7 @@
       <c r="A758" s="13"/>
       <c r="B758" s="14"/>
       <c r="C758" s="14"/>
-      <c r="D758" s="43"/>
+      <c r="D758" s="42"/>
       <c r="E758" s="26"/>
       <c r="F758" s="26"/>
       <c r="G758" s="2"/>
@@ -28377,7 +28376,7 @@
       <c r="A759" s="13"/>
       <c r="B759" s="14"/>
       <c r="C759" s="14"/>
-      <c r="D759" s="43"/>
+      <c r="D759" s="42"/>
       <c r="E759" s="26"/>
       <c r="F759" s="26"/>
       <c r="G759" s="2"/>
@@ -28408,7 +28407,7 @@
       <c r="A760" s="13"/>
       <c r="B760" s="14"/>
       <c r="C760" s="14"/>
-      <c r="D760" s="43"/>
+      <c r="D760" s="42"/>
       <c r="E760" s="26"/>
       <c r="F760" s="26"/>
       <c r="G760" s="2"/>
@@ -28439,7 +28438,7 @@
       <c r="A761" s="13"/>
       <c r="B761" s="14"/>
       <c r="C761" s="14"/>
-      <c r="D761" s="43"/>
+      <c r="D761" s="42"/>
       <c r="E761" s="26"/>
       <c r="F761" s="26"/>
       <c r="G761" s="2"/>
@@ -28470,7 +28469,7 @@
       <c r="A762" s="13"/>
       <c r="B762" s="14"/>
       <c r="C762" s="14"/>
-      <c r="D762" s="43"/>
+      <c r="D762" s="42"/>
       <c r="E762" s="26"/>
       <c r="F762" s="26"/>
       <c r="G762" s="2"/>
@@ -28501,7 +28500,7 @@
       <c r="A763" s="13"/>
       <c r="B763" s="14"/>
       <c r="C763" s="14"/>
-      <c r="D763" s="43"/>
+      <c r="D763" s="42"/>
       <c r="E763" s="26"/>
       <c r="F763" s="26"/>
       <c r="G763" s="2"/>
@@ -28532,7 +28531,7 @@
       <c r="A764" s="13"/>
       <c r="B764" s="14"/>
       <c r="C764" s="14"/>
-      <c r="D764" s="43"/>
+      <c r="D764" s="42"/>
       <c r="E764" s="26"/>
       <c r="F764" s="26"/>
       <c r="G764" s="2"/>
@@ -28563,7 +28562,7 @@
       <c r="A765" s="13"/>
       <c r="B765" s="14"/>
       <c r="C765" s="14"/>
-      <c r="D765" s="43"/>
+      <c r="D765" s="42"/>
       <c r="E765" s="26"/>
       <c r="F765" s="26"/>
       <c r="G765" s="2"/>
@@ -28594,7 +28593,7 @@
       <c r="A766" s="13"/>
       <c r="B766" s="14"/>
       <c r="C766" s="14"/>
-      <c r="D766" s="43"/>
+      <c r="D766" s="42"/>
       <c r="E766" s="26"/>
       <c r="F766" s="26"/>
       <c r="G766" s="2"/>
@@ -28625,7 +28624,7 @@
       <c r="A767" s="13"/>
       <c r="B767" s="14"/>
       <c r="C767" s="14"/>
-      <c r="D767" s="43"/>
+      <c r="D767" s="42"/>
       <c r="E767" s="26"/>
       <c r="F767" s="26"/>
       <c r="G767" s="2"/>
@@ -28656,7 +28655,7 @@
       <c r="A768" s="13"/>
       <c r="B768" s="14"/>
       <c r="C768" s="14"/>
-      <c r="D768" s="43"/>
+      <c r="D768" s="42"/>
       <c r="E768" s="26"/>
       <c r="F768" s="26"/>
       <c r="G768" s="2"/>
@@ -28687,7 +28686,7 @@
       <c r="A769" s="13"/>
       <c r="B769" s="14"/>
       <c r="C769" s="14"/>
-      <c r="D769" s="43"/>
+      <c r="D769" s="42"/>
       <c r="E769" s="26"/>
       <c r="F769" s="26"/>
       <c r="G769" s="2"/>
@@ -28718,7 +28717,7 @@
       <c r="A770" s="13"/>
       <c r="B770" s="14"/>
       <c r="C770" s="14"/>
-      <c r="D770" s="43"/>
+      <c r="D770" s="42"/>
       <c r="E770" s="26"/>
       <c r="F770" s="26"/>
       <c r="G770" s="2"/>
@@ -28749,7 +28748,7 @@
       <c r="A771" s="13"/>
       <c r="B771" s="14"/>
       <c r="C771" s="14"/>
-      <c r="D771" s="43"/>
+      <c r="D771" s="42"/>
       <c r="E771" s="26"/>
       <c r="F771" s="26"/>
       <c r="G771" s="2"/>
@@ -28780,7 +28779,7 @@
       <c r="A772" s="13"/>
       <c r="B772" s="14"/>
       <c r="C772" s="14"/>
-      <c r="D772" s="43"/>
+      <c r="D772" s="42"/>
       <c r="E772" s="26"/>
       <c r="F772" s="26"/>
       <c r="G772" s="2"/>
@@ -28811,7 +28810,7 @@
       <c r="A773" s="13"/>
       <c r="B773" s="14"/>
       <c r="C773" s="14"/>
-      <c r="D773" s="43"/>
+      <c r="D773" s="42"/>
       <c r="E773" s="26"/>
       <c r="F773" s="26"/>
       <c r="G773" s="2"/>
@@ -28842,7 +28841,7 @@
       <c r="A774" s="13"/>
       <c r="B774" s="14"/>
       <c r="C774" s="14"/>
-      <c r="D774" s="43"/>
+      <c r="D774" s="42"/>
       <c r="E774" s="26"/>
       <c r="F774" s="26"/>
       <c r="G774" s="2"/>
@@ -28873,7 +28872,7 @@
       <c r="A775" s="13"/>
       <c r="B775" s="14"/>
       <c r="C775" s="14"/>
-      <c r="D775" s="43"/>
+      <c r="D775" s="42"/>
       <c r="E775" s="26"/>
       <c r="F775" s="26"/>
       <c r="G775" s="2"/>
@@ -28904,7 +28903,7 @@
       <c r="A776" s="13"/>
       <c r="B776" s="14"/>
       <c r="C776" s="14"/>
-      <c r="D776" s="43"/>
+      <c r="D776" s="42"/>
       <c r="E776" s="26"/>
       <c r="F776" s="26"/>
       <c r="G776" s="2"/>
@@ -28935,7 +28934,7 @@
       <c r="A777" s="13"/>
       <c r="B777" s="14"/>
       <c r="C777" s="14"/>
-      <c r="D777" s="43"/>
+      <c r="D777" s="42"/>
       <c r="E777" s="26"/>
       <c r="F777" s="26"/>
       <c r="G777" s="2"/>
@@ -28966,7 +28965,7 @@
       <c r="A778" s="13"/>
       <c r="B778" s="14"/>
       <c r="C778" s="14"/>
-      <c r="D778" s="43"/>
+      <c r="D778" s="42"/>
       <c r="E778" s="26"/>
       <c r="F778" s="26"/>
       <c r="G778" s="2"/>
@@ -28997,7 +28996,7 @@
       <c r="A779" s="13"/>
       <c r="B779" s="14"/>
       <c r="C779" s="14"/>
-      <c r="D779" s="43"/>
+      <c r="D779" s="42"/>
       <c r="E779" s="26"/>
       <c r="F779" s="26"/>
       <c r="G779" s="2"/>
@@ -29028,7 +29027,7 @@
       <c r="A780" s="13"/>
       <c r="B780" s="14"/>
       <c r="C780" s="14"/>
-      <c r="D780" s="43"/>
+      <c r="D780" s="42"/>
       <c r="E780" s="26"/>
       <c r="F780" s="26"/>
       <c r="G780" s="2"/>
@@ -29059,7 +29058,7 @@
       <c r="A781" s="13"/>
       <c r="B781" s="14"/>
       <c r="C781" s="14"/>
-      <c r="D781" s="43"/>
+      <c r="D781" s="42"/>
       <c r="E781" s="26"/>
       <c r="F781" s="26"/>
       <c r="G781" s="2"/>
@@ -29090,7 +29089,7 @@
       <c r="A782" s="13"/>
       <c r="B782" s="14"/>
       <c r="C782" s="14"/>
-      <c r="D782" s="43"/>
+      <c r="D782" s="42"/>
       <c r="E782" s="26"/>
       <c r="F782" s="26"/>
       <c r="G782" s="2"/>
@@ -29121,7 +29120,7 @@
       <c r="A783" s="13"/>
       <c r="B783" s="14"/>
       <c r="C783" s="14"/>
-      <c r="D783" s="43"/>
+      <c r="D783" s="42"/>
       <c r="E783" s="26"/>
       <c r="F783" s="26"/>
       <c r="G783" s="2"/>
@@ -29152,7 +29151,7 @@
       <c r="A784" s="13"/>
       <c r="B784" s="14"/>
       <c r="C784" s="14"/>
-      <c r="D784" s="43"/>
+      <c r="D784" s="42"/>
       <c r="E784" s="26"/>
       <c r="F784" s="26"/>
       <c r="G784" s="2"/>
@@ -29183,7 +29182,7 @@
       <c r="A785" s="13"/>
       <c r="B785" s="14"/>
       <c r="C785" s="14"/>
-      <c r="D785" s="43"/>
+      <c r="D785" s="42"/>
       <c r="E785" s="26"/>
       <c r="F785" s="26"/>
       <c r="G785" s="2"/>
@@ -29214,7 +29213,7 @@
       <c r="A786" s="13"/>
       <c r="B786" s="14"/>
       <c r="C786" s="14"/>
-      <c r="D786" s="43"/>
+      <c r="D786" s="42"/>
       <c r="E786" s="26"/>
       <c r="F786" s="26"/>
       <c r="G786" s="2"/>
@@ -29245,7 +29244,7 @@
       <c r="A787" s="13"/>
       <c r="B787" s="14"/>
       <c r="C787" s="14"/>
-      <c r="D787" s="43"/>
+      <c r="D787" s="42"/>
       <c r="E787" s="26"/>
       <c r="F787" s="26"/>
       <c r="G787" s="2"/>
@@ -29276,7 +29275,7 @@
       <c r="A788" s="13"/>
       <c r="B788" s="14"/>
       <c r="C788" s="14"/>
-      <c r="D788" s="43"/>
+      <c r="D788" s="42"/>
       <c r="E788" s="26"/>
       <c r="F788" s="26"/>
       <c r="G788" s="2"/>
@@ -29307,7 +29306,7 @@
       <c r="A789" s="13"/>
       <c r="B789" s="14"/>
       <c r="C789" s="14"/>
-      <c r="D789" s="43"/>
+      <c r="D789" s="42"/>
       <c r="E789" s="26"/>
       <c r="F789" s="26"/>
       <c r="G789" s="2"/>
@@ -29338,7 +29337,7 @@
       <c r="A790" s="13"/>
       <c r="B790" s="14"/>
       <c r="C790" s="14"/>
-      <c r="D790" s="43"/>
+      <c r="D790" s="42"/>
       <c r="E790" s="26"/>
       <c r="F790" s="26"/>
       <c r="G790" s="2"/>
@@ -29369,7 +29368,7 @@
       <c r="A791" s="13"/>
       <c r="B791" s="14"/>
       <c r="C791" s="14"/>
-      <c r="D791" s="43"/>
+      <c r="D791" s="42"/>
       <c r="E791" s="26"/>
       <c r="F791" s="26"/>
       <c r="G791" s="2"/>
@@ -29400,7 +29399,7 @@
       <c r="A792" s="13"/>
       <c r="B792" s="14"/>
       <c r="C792" s="14"/>
-      <c r="D792" s="43"/>
+      <c r="D792" s="42"/>
       <c r="E792" s="26"/>
       <c r="F792" s="26"/>
       <c r="G792" s="2"/>
@@ -29431,7 +29430,7 @@
       <c r="A793" s="13"/>
       <c r="B793" s="14"/>
       <c r="C793" s="14"/>
-      <c r="D793" s="43"/>
+      <c r="D793" s="42"/>
       <c r="E793" s="26"/>
       <c r="F793" s="26"/>
       <c r="G793" s="2"/>
@@ -29462,7 +29461,7 @@
       <c r="A794" s="13"/>
       <c r="B794" s="14"/>
       <c r="C794" s="14"/>
-      <c r="D794" s="43"/>
+      <c r="D794" s="42"/>
       <c r="E794" s="26"/>
       <c r="F794" s="26"/>
       <c r="G794" s="2"/>
@@ -29493,7 +29492,7 @@
       <c r="A795" s="13"/>
       <c r="B795" s="14"/>
       <c r="C795" s="14"/>
-      <c r="D795" s="43"/>
+      <c r="D795" s="42"/>
       <c r="E795" s="26"/>
       <c r="F795" s="26"/>
       <c r="G795" s="2"/>
@@ -29524,7 +29523,7 @@
       <c r="A796" s="13"/>
       <c r="B796" s="14"/>
       <c r="C796" s="14"/>
-      <c r="D796" s="43"/>
+      <c r="D796" s="42"/>
       <c r="E796" s="26"/>
       <c r="F796" s="26"/>
       <c r="G796" s="2"/>
@@ -29555,7 +29554,7 @@
       <c r="A797" s="13"/>
       <c r="B797" s="14"/>
       <c r="C797" s="14"/>
-      <c r="D797" s="43"/>
+      <c r="D797" s="42"/>
       <c r="E797" s="26"/>
       <c r="F797" s="26"/>
       <c r="G797" s="2"/>
@@ -29586,7 +29585,7 @@
       <c r="A798" s="13"/>
       <c r="B798" s="14"/>
       <c r="C798" s="14"/>
-      <c r="D798" s="43"/>
+      <c r="D798" s="42"/>
       <c r="E798" s="26"/>
       <c r="F798" s="26"/>
       <c r="G798" s="2"/>
@@ -29617,7 +29616,7 @@
       <c r="A799" s="13"/>
       <c r="B799" s="14"/>
       <c r="C799" s="14"/>
-      <c r="D799" s="43"/>
+      <c r="D799" s="42"/>
       <c r="E799" s="26"/>
       <c r="F799" s="26"/>
       <c r="G799" s="2"/>
@@ -29648,7 +29647,7 @@
       <c r="A800" s="13"/>
       <c r="B800" s="14"/>
       <c r="C800" s="14"/>
-      <c r="D800" s="43"/>
+      <c r="D800" s="42"/>
       <c r="E800" s="26"/>
       <c r="F800" s="26"/>
       <c r="G800" s="2"/>
@@ -29679,7 +29678,7 @@
       <c r="A801" s="13"/>
       <c r="B801" s="14"/>
       <c r="C801" s="14"/>
-      <c r="D801" s="43"/>
+      <c r="D801" s="42"/>
       <c r="E801" s="26"/>
       <c r="F801" s="26"/>
       <c r="G801" s="2"/>
@@ -29710,7 +29709,7 @@
       <c r="A802" s="13"/>
       <c r="B802" s="14"/>
       <c r="C802" s="14"/>
-      <c r="D802" s="43"/>
+      <c r="D802" s="42"/>
       <c r="E802" s="26"/>
       <c r="F802" s="26"/>
       <c r="G802" s="2"/>
@@ -29741,7 +29740,7 @@
       <c r="A803" s="13"/>
       <c r="B803" s="14"/>
       <c r="C803" s="14"/>
-      <c r="D803" s="43"/>
+      <c r="D803" s="42"/>
       <c r="E803" s="26"/>
       <c r="F803" s="26"/>
       <c r="G803" s="2"/>
@@ -29772,7 +29771,7 @@
       <c r="A804" s="13"/>
       <c r="B804" s="14"/>
       <c r="C804" s="14"/>
-      <c r="D804" s="43"/>
+      <c r="D804" s="42"/>
       <c r="E804" s="26"/>
       <c r="F804" s="26"/>
       <c r="G804" s="2"/>
@@ -29803,7 +29802,7 @@
       <c r="A805" s="13"/>
       <c r="B805" s="14"/>
       <c r="C805" s="14"/>
-      <c r="D805" s="43"/>
+      <c r="D805" s="42"/>
       <c r="E805" s="26"/>
       <c r="F805" s="26"/>
       <c r="G805" s="2"/>
@@ -29834,7 +29833,7 @@
       <c r="A806" s="13"/>
       <c r="B806" s="14"/>
       <c r="C806" s="14"/>
-      <c r="D806" s="43"/>
+      <c r="D806" s="42"/>
       <c r="E806" s="26"/>
       <c r="F806" s="26"/>
       <c r="G806" s="2"/>
@@ -29865,7 +29864,7 @@
       <c r="A807" s="13"/>
       <c r="B807" s="14"/>
       <c r="C807" s="14"/>
-      <c r="D807" s="43"/>
+      <c r="D807" s="42"/>
       <c r="E807" s="26"/>
       <c r="F807" s="26"/>
       <c r="G807" s="2"/>
@@ -29896,7 +29895,7 @@
       <c r="A808" s="13"/>
       <c r="B808" s="14"/>
       <c r="C808" s="14"/>
-      <c r="D808" s="43"/>
+      <c r="D808" s="42"/>
       <c r="E808" s="26"/>
       <c r="F808" s="26"/>
       <c r="G808" s="2"/>
@@ -29927,7 +29926,7 @@
       <c r="A809" s="13"/>
       <c r="B809" s="14"/>
       <c r="C809" s="14"/>
-      <c r="D809" s="43"/>
+      <c r="D809" s="42"/>
       <c r="E809" s="26"/>
       <c r="F809" s="26"/>
       <c r="G809" s="2"/>
@@ -29958,7 +29957,7 @@
       <c r="A810" s="13"/>
       <c r="B810" s="14"/>
       <c r="C810" s="14"/>
-      <c r="D810" s="43"/>
+      <c r="D810" s="42"/>
       <c r="E810" s="26"/>
       <c r="F810" s="26"/>
       <c r="G810" s="2"/>
@@ -29989,7 +29988,7 @@
       <c r="A811" s="13"/>
       <c r="B811" s="14"/>
       <c r="C811" s="14"/>
-      <c r="D811" s="43"/>
+      <c r="D811" s="42"/>
       <c r="E811" s="26"/>
       <c r="F811" s="26"/>
       <c r="G811" s="2"/>
@@ -30020,7 +30019,7 @@
       <c r="A812" s="13"/>
       <c r="B812" s="14"/>
       <c r="C812" s="14"/>
-      <c r="D812" s="43"/>
+      <c r="D812" s="42"/>
       <c r="E812" s="26"/>
       <c r="F812" s="26"/>
       <c r="G812" s="2"/>
@@ -30051,7 +30050,7 @@
       <c r="A813" s="13"/>
       <c r="B813" s="14"/>
       <c r="C813" s="14"/>
-      <c r="D813" s="43"/>
+      <c r="D813" s="42"/>
       <c r="E813" s="26"/>
       <c r="F813" s="26"/>
       <c r="G813" s="2"/>
@@ -30082,7 +30081,7 @@
       <c r="A814" s="13"/>
       <c r="B814" s="14"/>
       <c r="C814" s="14"/>
-      <c r="D814" s="43"/>
+      <c r="D814" s="42"/>
       <c r="E814" s="26"/>
       <c r="F814" s="26"/>
       <c r="G814" s="2"/>
@@ -30113,7 +30112,7 @@
       <c r="A815" s="13"/>
       <c r="B815" s="14"/>
       <c r="C815" s="14"/>
-      <c r="D815" s="43"/>
+      <c r="D815" s="42"/>
       <c r="E815" s="26"/>
       <c r="F815" s="26"/>
       <c r="G815" s="2"/>
@@ -30144,7 +30143,7 @@
       <c r="A816" s="13"/>
       <c r="B816" s="14"/>
       <c r="C816" s="14"/>
-      <c r="D816" s="43"/>
+      <c r="D816" s="42"/>
       <c r="E816" s="26"/>
       <c r="F816" s="26"/>
       <c r="G816" s="2"/>
@@ -30175,7 +30174,7 @@
       <c r="A817" s="13"/>
       <c r="B817" s="14"/>
       <c r="C817" s="14"/>
-      <c r="D817" s="43"/>
+      <c r="D817" s="42"/>
       <c r="E817" s="26"/>
       <c r="F817" s="26"/>
       <c r="G817" s="2"/>
@@ -30206,7 +30205,7 @@
       <c r="A818" s="13"/>
       <c r="B818" s="14"/>
       <c r="C818" s="14"/>
-      <c r="D818" s="43"/>
+      <c r="D818" s="42"/>
       <c r="E818" s="26"/>
       <c r="F818" s="26"/>
       <c r="G818" s="2"/>
@@ -30237,7 +30236,7 @@
       <c r="A819" s="13"/>
       <c r="B819" s="14"/>
       <c r="C819" s="14"/>
-      <c r="D819" s="43"/>
+      <c r="D819" s="42"/>
       <c r="E819" s="26"/>
       <c r="F819" s="26"/>
       <c r="G819" s="2"/>
@@ -30268,7 +30267,7 @@
       <c r="A820" s="13"/>
       <c r="B820" s="14"/>
       <c r="C820" s="14"/>
-      <c r="D820" s="43"/>
+      <c r="D820" s="42"/>
       <c r="E820" s="26"/>
       <c r="F820" s="26"/>
       <c r="G820" s="2"/>
@@ -30299,7 +30298,7 @@
       <c r="A821" s="13"/>
       <c r="B821" s="14"/>
       <c r="C821" s="14"/>
-      <c r="D821" s="43"/>
+      <c r="D821" s="42"/>
       <c r="E821" s="26"/>
       <c r="F821" s="26"/>
       <c r="G821" s="2"/>
@@ -30330,7 +30329,7 @@
       <c r="A822" s="13"/>
       <c r="B822" s="14"/>
       <c r="C822" s="14"/>
-      <c r="D822" s="43"/>
+      <c r="D822" s="42"/>
       <c r="E822" s="26"/>
       <c r="F822" s="26"/>
       <c r="G822" s="2"/>
@@ -30361,7 +30360,7 @@
       <c r="A823" s="13"/>
       <c r="B823" s="14"/>
       <c r="C823" s="14"/>
-      <c r="D823" s="43"/>
+      <c r="D823" s="42"/>
       <c r="E823" s="26"/>
       <c r="F823" s="26"/>
       <c r="G823" s="2"/>
@@ -30392,7 +30391,7 @@
       <c r="A824" s="13"/>
       <c r="B824" s="14"/>
       <c r="C824" s="14"/>
-      <c r="D824" s="43"/>
+      <c r="D824" s="42"/>
       <c r="E824" s="26"/>
       <c r="F824" s="26"/>
       <c r="G824" s="2"/>
@@ -30423,7 +30422,7 @@
       <c r="A825" s="13"/>
       <c r="B825" s="14"/>
       <c r="C825" s="14"/>
-      <c r="D825" s="43"/>
+      <c r="D825" s="42"/>
       <c r="E825" s="26"/>
       <c r="F825" s="26"/>
       <c r="G825" s="2"/>
@@ -30454,7 +30453,7 @@
       <c r="A826" s="13"/>
       <c r="B826" s="14"/>
       <c r="C826" s="14"/>
-      <c r="D826" s="43"/>
+      <c r="D826" s="42"/>
       <c r="E826" s="26"/>
       <c r="F826" s="26"/>
       <c r="G826" s="2"/>
@@ -30485,7 +30484,7 @@
       <c r="A827" s="13"/>
       <c r="B827" s="14"/>
       <c r="C827" s="14"/>
-      <c r="D827" s="43"/>
+      <c r="D827" s="42"/>
       <c r="E827" s="26"/>
       <c r="F827" s="26"/>
       <c r="G827" s="2"/>
@@ -30516,7 +30515,7 @@
       <c r="A828" s="13"/>
       <c r="B828" s="14"/>
       <c r="C828" s="14"/>
-      <c r="D828" s="43"/>
+      <c r="D828" s="42"/>
       <c r="E828" s="26"/>
       <c r="F828" s="26"/>
       <c r="G828" s="2"/>
@@ -30547,7 +30546,7 @@
       <c r="A829" s="13"/>
       <c r="B829" s="14"/>
       <c r="C829" s="14"/>
-      <c r="D829" s="43"/>
+      <c r="D829" s="42"/>
       <c r="E829" s="26"/>
       <c r="F829" s="26"/>
       <c r="G829" s="2"/>
@@ -30578,7 +30577,7 @@
       <c r="A830" s="13"/>
       <c r="B830" s="14"/>
       <c r="C830" s="14"/>
-      <c r="D830" s="43"/>
+      <c r="D830" s="42"/>
       <c r="E830" s="26"/>
       <c r="F830" s="26"/>
       <c r="G830" s="2"/>
@@ -30609,7 +30608,7 @@
       <c r="A831" s="13"/>
       <c r="B831" s="14"/>
       <c r="C831" s="14"/>
-      <c r="D831" s="43"/>
+      <c r="D831" s="42"/>
       <c r="E831" s="26"/>
       <c r="F831" s="26"/>
       <c r="G831" s="2"/>
@@ -30640,7 +30639,7 @@
       <c r="A832" s="13"/>
       <c r="B832" s="14"/>
       <c r="C832" s="14"/>
-      <c r="D832" s="43"/>
+      <c r="D832" s="42"/>
       <c r="E832" s="26"/>
       <c r="F832" s="26"/>
       <c r="G832" s="2"/>
@@ -30671,7 +30670,7 @@
       <c r="A833" s="13"/>
       <c r="B833" s="14"/>
       <c r="C833" s="14"/>
-      <c r="D833" s="43"/>
+      <c r="D833" s="42"/>
       <c r="E833" s="26"/>
       <c r="F833" s="26"/>
       <c r="G833" s="2"/>
@@ -30702,7 +30701,7 @@
       <c r="A834" s="13"/>
       <c r="B834" s="14"/>
       <c r="C834" s="14"/>
-      <c r="D834" s="43"/>
+      <c r="D834" s="42"/>
       <c r="E834" s="26"/>
       <c r="F834" s="26"/>
       <c r="G834" s="2"/>
@@ -30733,7 +30732,7 @@
       <c r="A835" s="13"/>
       <c r="B835" s="14"/>
       <c r="C835" s="14"/>
-      <c r="D835" s="43"/>
+      <c r="D835" s="42"/>
       <c r="E835" s="26"/>
       <c r="F835" s="26"/>
       <c r="G835" s="2"/>
@@ -30764,7 +30763,7 @@
       <c r="A836" s="13"/>
       <c r="B836" s="14"/>
       <c r="C836" s="14"/>
-      <c r="D836" s="43"/>
+      <c r="D836" s="42"/>
       <c r="E836" s="26"/>
       <c r="F836" s="26"/>
       <c r="G836" s="2"/>
@@ -30795,7 +30794,7 @@
       <c r="A837" s="13"/>
       <c r="B837" s="14"/>
       <c r="C837" s="14"/>
-      <c r="D837" s="43"/>
+      <c r="D837" s="42"/>
       <c r="E837" s="26"/>
       <c r="F837" s="26"/>
       <c r="G837" s="2"/>
@@ -30826,7 +30825,7 @@
       <c r="A838" s="13"/>
       <c r="B838" s="14"/>
       <c r="C838" s="14"/>
-      <c r="D838" s="43"/>
+      <c r="D838" s="42"/>
       <c r="E838" s="26"/>
       <c r="F838" s="26"/>
       <c r="G838" s="2"/>
@@ -30857,7 +30856,7 @@
       <c r="A839" s="13"/>
       <c r="B839" s="14"/>
       <c r="C839" s="14"/>
-      <c r="D839" s="43"/>
+      <c r="D839" s="42"/>
       <c r="E839" s="26"/>
       <c r="F839" s="26"/>
       <c r="G839" s="2"/>
@@ -30888,7 +30887,7 @@
       <c r="A840" s="13"/>
       <c r="B840" s="14"/>
       <c r="C840" s="14"/>
-      <c r="D840" s="43"/>
+      <c r="D840" s="42"/>
       <c r="E840" s="26"/>
       <c r="F840" s="26"/>
       <c r="G840" s="2"/>
@@ -30919,7 +30918,7 @@
       <c r="A841" s="13"/>
       <c r="B841" s="14"/>
       <c r="C841" s="14"/>
-      <c r="D841" s="43"/>
+      <c r="D841" s="42"/>
       <c r="E841" s="26"/>
       <c r="F841" s="26"/>
       <c r="G841" s="2"/>
@@ -30950,7 +30949,7 @@
       <c r="A842" s="13"/>
       <c r="B842" s="14"/>
       <c r="C842" s="14"/>
-      <c r="D842" s="43"/>
+      <c r="D842" s="42"/>
       <c r="E842" s="26"/>
       <c r="F842" s="26"/>
       <c r="G842" s="2"/>
@@ -30981,7 +30980,7 @@
       <c r="A843" s="13"/>
       <c r="B843" s="14"/>
       <c r="C843" s="14"/>
-      <c r="D843" s="43"/>
+      <c r="D843" s="42"/>
       <c r="E843" s="26"/>
       <c r="F843" s="26"/>
       <c r="G843" s="2"/>
@@ -31012,7 +31011,7 @@
       <c r="A844" s="13"/>
       <c r="B844" s="14"/>
       <c r="C844" s="14"/>
-      <c r="D844" s="43"/>
+      <c r="D844" s="42"/>
       <c r="E844" s="26"/>
       <c r="F844" s="26"/>
       <c r="G844" s="2"/>
@@ -31043,7 +31042,7 @@
       <c r="A845" s="13"/>
       <c r="B845" s="14"/>
       <c r="C845" s="14"/>
-      <c r="D845" s="43"/>
+      <c r="D845" s="42"/>
       <c r="E845" s="26"/>
       <c r="F845" s="26"/>
       <c r="G845" s="2"/>
@@ -31074,7 +31073,7 @@
       <c r="A846" s="13"/>
       <c r="B846" s="14"/>
       <c r="C846" s="14"/>
-      <c r="D846" s="43"/>
+      <c r="D846" s="42"/>
       <c r="E846" s="26"/>
       <c r="F846" s="26"/>
       <c r="G846" s="2"/>
@@ -31105,7 +31104,7 @@
       <c r="A847" s="13"/>
       <c r="B847" s="14"/>
       <c r="C847" s="14"/>
-      <c r="D847" s="43"/>
+      <c r="D847" s="42"/>
       <c r="E847" s="26"/>
       <c r="F847" s="26"/>
       <c r="G847" s="2"/>
@@ -31136,7 +31135,7 @@
       <c r="A848" s="13"/>
       <c r="B848" s="14"/>
       <c r="C848" s="14"/>
-      <c r="D848" s="43"/>
+      <c r="D848" s="42"/>
       <c r="E848" s="26"/>
       <c r="F848" s="26"/>
       <c r="G848" s="2"/>
@@ -31167,7 +31166,7 @@
       <c r="A849" s="13"/>
       <c r="B849" s="14"/>
       <c r="C849" s="14"/>
-      <c r="D849" s="43"/>
+      <c r="D849" s="42"/>
       <c r="E849" s="26"/>
       <c r="F849" s="26"/>
       <c r="G849" s="2"/>
@@ -31198,7 +31197,7 @@
       <c r="A850" s="13"/>
       <c r="B850" s="14"/>
       <c r="C850" s="14"/>
-      <c r="D850" s="43"/>
+      <c r="D850" s="42"/>
       <c r="E850" s="26"/>
       <c r="F850" s="26"/>
       <c r="G850" s="2"/>
@@ -31229,7 +31228,7 @@
       <c r="A851" s="13"/>
       <c r="B851" s="14"/>
       <c r="C851" s="14"/>
-      <c r="D851" s="43"/>
+      <c r="D851" s="42"/>
       <c r="E851" s="26"/>
       <c r="F851" s="26"/>
       <c r="G851" s="2"/>
@@ -31260,7 +31259,7 @@
       <c r="A852" s="13"/>
       <c r="B852" s="14"/>
       <c r="C852" s="14"/>
-      <c r="D852" s="43"/>
+      <c r="D852" s="42"/>
       <c r="E852" s="26"/>
       <c r="F852" s="26"/>
       <c r="G852" s="2"/>
@@ -31291,7 +31290,7 @@
       <c r="A853" s="13"/>
       <c r="B853" s="14"/>
       <c r="C853" s="14"/>
-      <c r="D853" s="43"/>
+      <c r="D853" s="42"/>
       <c r="E853" s="26"/>
       <c r="F853" s="26"/>
       <c r="G853" s="2"/>
@@ -31322,7 +31321,7 @@
       <c r="A854" s="13"/>
       <c r="B854" s="14"/>
       <c r="C854" s="14"/>
-      <c r="D854" s="43"/>
+      <c r="D854" s="42"/>
       <c r="E854" s="26"/>
       <c r="F854" s="26"/>
       <c r="G854" s="2"/>
@@ -31353,7 +31352,7 @@
       <c r="A855" s="13"/>
       <c r="B855" s="14"/>
       <c r="C855" s="14"/>
-      <c r="D855" s="43"/>
+      <c r="D855" s="42"/>
       <c r="E855" s="26"/>
       <c r="F855" s="26"/>
       <c r="G855" s="2"/>
@@ -31384,7 +31383,7 @@
       <c r="A856" s="13"/>
       <c r="B856" s="14"/>
       <c r="C856" s="14"/>
-      <c r="D856" s="43"/>
+      <c r="D856" s="42"/>
       <c r="E856" s="26"/>
       <c r="F856" s="26"/>
       <c r="G856" s="2"/>
@@ -31415,7 +31414,7 @@
       <c r="A857" s="13"/>
       <c r="B857" s="14"/>
       <c r="C857" s="14"/>
-      <c r="D857" s="43"/>
+      <c r="D857" s="42"/>
       <c r="E857" s="26"/>
       <c r="F857" s="26"/>
       <c r="G857" s="2"/>
@@ -31446,7 +31445,7 @@
       <c r="A858" s="13"/>
       <c r="B858" s="14"/>
       <c r="C858" s="14"/>
-      <c r="D858" s="43"/>
+      <c r="D858" s="42"/>
       <c r="E858" s="26"/>
       <c r="F858" s="26"/>
       <c r="G858" s="2"/>
@@ -31477,7 +31476,7 @@
       <c r="A859" s="13"/>
       <c r="B859" s="14"/>
       <c r="C859" s="14"/>
-      <c r="D859" s="43"/>
+      <c r="D859" s="42"/>
       <c r="E859" s="26"/>
       <c r="F859" s="26"/>
       <c r="G859" s="2"/>
@@ -31508,7 +31507,7 @@
       <c r="A860" s="13"/>
       <c r="B860" s="14"/>
       <c r="C860" s="14"/>
-      <c r="D860" s="43"/>
+      <c r="D860" s="42"/>
       <c r="E860" s="26"/>
       <c r="F860" s="26"/>
       <c r="G860" s="2"/>
@@ -31539,7 +31538,7 @@
       <c r="A861" s="13"/>
       <c r="B861" s="14"/>
       <c r="C861" s="14"/>
-      <c r="D861" s="43"/>
+      <c r="D861" s="42"/>
       <c r="E861" s="26"/>
       <c r="F861" s="26"/>
       <c r="G861" s="2"/>
@@ -31570,7 +31569,7 @@
       <c r="A862" s="13"/>
       <c r="B862" s="14"/>
       <c r="C862" s="14"/>
-      <c r="D862" s="43"/>
+      <c r="D862" s="42"/>
       <c r="E862" s="26"/>
       <c r="F862" s="26"/>
       <c r="G862" s="2"/>
@@ -31601,7 +31600,7 @@
       <c r="A863" s="13"/>
       <c r="B863" s="14"/>
       <c r="C863" s="14"/>
-      <c r="D863" s="43"/>
+      <c r="D863" s="42"/>
       <c r="E863" s="26"/>
       <c r="F863" s="26"/>
       <c r="G863" s="2"/>
@@ -31632,7 +31631,7 @@
       <c r="A864" s="13"/>
       <c r="B864" s="14"/>
       <c r="C864" s="14"/>
-      <c r="D864" s="43"/>
+      <c r="D864" s="42"/>
       <c r="E864" s="26"/>
       <c r="F864" s="26"/>
       <c r="G864" s="2"/>
@@ -31663,7 +31662,7 @@
       <c r="A865" s="13"/>
       <c r="B865" s="14"/>
       <c r="C865" s="14"/>
-      <c r="D865" s="43"/>
+      <c r="D865" s="42"/>
       <c r="E865" s="26"/>
       <c r="F865" s="26"/>
       <c r="G865" s="2"/>
@@ -31694,7 +31693,7 @@
       <c r="A866" s="13"/>
       <c r="B866" s="14"/>
       <c r="C866" s="14"/>
-      <c r="D866" s="43"/>
+      <c r="D866" s="42"/>
       <c r="E866" s="26"/>
       <c r="F866" s="26"/>
       <c r="G866" s="2"/>
@@ -31725,7 +31724,7 @@
       <c r="A867" s="13"/>
       <c r="B867" s="14"/>
       <c r="C867" s="14"/>
-      <c r="D867" s="43"/>
+      <c r="D867" s="42"/>
       <c r="E867" s="26"/>
       <c r="F867" s="26"/>
       <c r="G867" s="2"/>
@@ -31756,7 +31755,7 @@
       <c r="A868" s="13"/>
       <c r="B868" s="14"/>
       <c r="C868" s="14"/>
-      <c r="D868" s="43"/>
+      <c r="D868" s="42"/>
       <c r="E868" s="26"/>
       <c r="F868" s="26"/>
       <c r="G868" s="2"/>
@@ -31787,7 +31786,7 @@
       <c r="A869" s="13"/>
       <c r="B869" s="14"/>
       <c r="C869" s="14"/>
-      <c r="D869" s="43"/>
+      <c r="D869" s="42"/>
       <c r="E869" s="26"/>
       <c r="F869" s="26"/>
       <c r="G869" s="2"/>
@@ -31818,7 +31817,7 @@
       <c r="A870" s="13"/>
       <c r="B870" s="14"/>
       <c r="C870" s="14"/>
-      <c r="D870" s="43"/>
+      <c r="D870" s="42"/>
       <c r="E870" s="26"/>
       <c r="F870" s="26"/>
       <c r="G870" s="2"/>
@@ -31849,7 +31848,7 @@
       <c r="A871" s="13"/>
       <c r="B871" s="14"/>
       <c r="C871" s="14"/>
-      <c r="D871" s="43"/>
+      <c r="D871" s="42"/>
       <c r="E871" s="26"/>
       <c r="F871" s="26"/>
       <c r="G871" s="2"/>
@@ -31880,7 +31879,7 @@
       <c r="A872" s="13"/>
       <c r="B872" s="14"/>
       <c r="C872" s="14"/>
-      <c r="D872" s="43"/>
+      <c r="D872" s="42"/>
       <c r="E872" s="26"/>
       <c r="F872" s="26"/>
       <c r="G872" s="2"/>
@@ -31911,7 +31910,7 @@
       <c r="A873" s="13"/>
       <c r="B873" s="14"/>
       <c r="C873" s="14"/>
-      <c r="D873" s="43"/>
+      <c r="D873" s="42"/>
       <c r="E873" s="26"/>
       <c r="F873" s="26"/>
       <c r="G873" s="2"/>
@@ -31942,7 +31941,7 @@
       <c r="A874" s="13"/>
       <c r="B874" s="14"/>
       <c r="C874" s="14"/>
-      <c r="D874" s="43"/>
+      <c r="D874" s="42"/>
       <c r="E874" s="26"/>
       <c r="F874" s="26"/>
       <c r="G874" s="2"/>
@@ -31973,7 +31972,7 @@
       <c r="A875" s="13"/>
       <c r="B875" s="14"/>
       <c r="C875" s="14"/>
-      <c r="D875" s="43"/>
+      <c r="D875" s="42"/>
       <c r="E875" s="26"/>
       <c r="F875" s="26"/>
       <c r="G875" s="2"/>
@@ -32004,7 +32003,7 @@
       <c r="A876" s="13"/>
       <c r="B876" s="14"/>
       <c r="C876" s="14"/>
-      <c r="D876" s="43"/>
+      <c r="D876" s="42"/>
       <c r="E876" s="26"/>
       <c r="F876" s="26"/>
       <c r="G876" s="2"/>
@@ -32035,7 +32034,7 @@
       <c r="A877" s="13"/>
       <c r="B877" s="14"/>
       <c r="C877" s="14"/>
-      <c r="D877" s="43"/>
+      <c r="D877" s="42"/>
       <c r="E877" s="26"/>
       <c r="F877" s="26"/>
       <c r="G877" s="2"/>
@@ -32066,7 +32065,7 @@
       <c r="A878" s="13"/>
       <c r="B878" s="14"/>
       <c r="C878" s="14"/>
-      <c r="D878" s="43"/>
+      <c r="D878" s="42"/>
       <c r="E878" s="26"/>
       <c r="F878" s="26"/>
       <c r="G878" s="2"/>
@@ -32097,7 +32096,7 @@
       <c r="A879" s="13"/>
       <c r="B879" s="14"/>
       <c r="C879" s="14"/>
-      <c r="D879" s="43"/>
+      <c r="D879" s="42"/>
       <c r="E879" s="26"/>
       <c r="F879" s="26"/>
       <c r="G879" s="2"/>
@@ -32128,7 +32127,7 @@
       <c r="A880" s="13"/>
       <c r="B880" s="14"/>
       <c r="C880" s="14"/>
-      <c r="D880" s="43"/>
+      <c r="D880" s="42"/>
       <c r="E880" s="26"/>
       <c r="F880" s="26"/>
       <c r="G880" s="2"/>
@@ -32159,7 +32158,7 @@
       <c r="A881" s="13"/>
       <c r="B881" s="14"/>
       <c r="C881" s="14"/>
-      <c r="D881" s="43"/>
+      <c r="D881" s="42"/>
       <c r="E881" s="26"/>
       <c r="F881" s="26"/>
       <c r="G881" s="2"/>
@@ -32190,7 +32189,7 @@
       <c r="A882" s="13"/>
       <c r="B882" s="14"/>
       <c r="C882" s="14"/>
-      <c r="D882" s="43"/>
+      <c r="D882" s="42"/>
       <c r="E882" s="26"/>
       <c r="F882" s="26"/>
       <c r="G882" s="2"/>
@@ -32221,7 +32220,7 @@
       <c r="A883" s="13"/>
       <c r="B883" s="14"/>
       <c r="C883" s="14"/>
-      <c r="D883" s="43"/>
+      <c r="D883" s="42"/>
       <c r="E883" s="26"/>
       <c r="F883" s="26"/>
       <c r="G883" s="2"/>
@@ -32252,7 +32251,7 @@
       <c r="A884" s="13"/>
       <c r="B884" s="14"/>
       <c r="C884" s="14"/>
-      <c r="D884" s="43"/>
+      <c r="D884" s="42"/>
       <c r="E884" s="26"/>
       <c r="F884" s="26"/>
       <c r="G884" s="2"/>
@@ -32283,7 +32282,7 @@
       <c r="A885" s="13"/>
       <c r="B885" s="14"/>
       <c r="C885" s="14"/>
-      <c r="D885" s="43"/>
+      <c r="D885" s="42"/>
       <c r="E885" s="26"/>
       <c r="F885" s="26"/>
       <c r="G885" s="2"/>
@@ -32314,7 +32313,7 @@
       <c r="A886" s="13"/>
       <c r="B886" s="14"/>
       <c r="C886" s="14"/>
-      <c r="D886" s="43"/>
+      <c r="D886" s="42"/>
       <c r="E886" s="26"/>
       <c r="F886" s="26"/>
       <c r="G886" s="2"/>
@@ -32345,7 +32344,7 @@
       <c r="A887" s="13"/>
       <c r="B887" s="14"/>
       <c r="C887" s="14"/>
-      <c r="D887" s="43"/>
+      <c r="D887" s="42"/>
       <c r="E887" s="26"/>
       <c r="F887" s="26"/>
       <c r="G887" s="2"/>
@@ -32376,7 +32375,7 @@
       <c r="A888" s="13"/>
       <c r="B888" s="14"/>
       <c r="C888" s="14"/>
-      <c r="D888" s="43"/>
+      <c r="D888" s="42"/>
       <c r="E888" s="26"/>
       <c r="F888" s="26"/>
       <c r="G888" s="2"/>
@@ -32407,7 +32406,7 @@
       <c r="A889" s="13"/>
       <c r="B889" s="14"/>
       <c r="C889" s="14"/>
-      <c r="D889" s="43"/>
+      <c r="D889" s="42"/>
       <c r="E889" s="26"/>
       <c r="F889" s="26"/>
       <c r="G889" s="2"/>
@@ -32438,7 +32437,7 @@
       <c r="A890" s="13"/>
       <c r="B890" s="14"/>
       <c r="C890" s="14"/>
-      <c r="D890" s="43"/>
+      <c r="D890" s="42"/>
       <c r="E890" s="26"/>
       <c r="F890" s="26"/>
       <c r="G890" s="2"/>
@@ -32469,7 +32468,7 @@
       <c r="A891" s="13"/>
       <c r="B891" s="14"/>
       <c r="C891" s="14"/>
-      <c r="D891" s="43"/>
+      <c r="D891" s="42"/>
       <c r="E891" s="26"/>
       <c r="F891" s="26"/>
       <c r="G891" s="2"/>
@@ -32500,7 +32499,7 @@
       <c r="A892" s="13"/>
       <c r="B892" s="14"/>
       <c r="C892" s="14"/>
-      <c r="D892" s="43"/>
+      <c r="D892" s="42"/>
       <c r="E892" s="26"/>
       <c r="F892" s="26"/>
       <c r="G892" s="2"/>
@@ -32531,7 +32530,7 @@
       <c r="A893" s="13"/>
       <c r="B893" s="14"/>
       <c r="C893" s="14"/>
-      <c r="D893" s="43"/>
+      <c r="D893" s="42"/>
       <c r="E893" s="26"/>
       <c r="F893" s="26"/>
       <c r="G893" s="2"/>
@@ -32562,7 +32561,7 @@
       <c r="A894" s="13"/>
       <c r="B894" s="14"/>
       <c r="C894" s="14"/>
-      <c r="D894" s="43"/>
+      <c r="D894" s="42"/>
       <c r="E894" s="26"/>
       <c r="F894" s="26"/>
       <c r="G894" s="2"/>
@@ -32593,7 +32592,7 @@
       <c r="A895" s="13"/>
       <c r="B895" s="14"/>
       <c r="C895" s="14"/>
-      <c r="D895" s="43"/>
+      <c r="D895" s="42"/>
       <c r="E895" s="26"/>
       <c r="F895" s="26"/>
       <c r="G895" s="2"/>
@@ -32624,7 +32623,7 @@
       <c r="A896" s="13"/>
       <c r="B896" s="14"/>
       <c r="C896" s="14"/>
-      <c r="D896" s="43"/>
+      <c r="D896" s="42"/>
       <c r="E896" s="26"/>
       <c r="F896" s="26"/>
       <c r="G896" s="2"/>
@@ -32655,7 +32654,7 @@
       <c r="A897" s="13"/>
       <c r="B897" s="14"/>
       <c r="C897" s="14"/>
-      <c r="D897" s="43"/>
+      <c r="D897" s="42"/>
       <c r="E897" s="26"/>
       <c r="F897" s="26"/>
       <c r="G897" s="2"/>
@@ -32686,7 +32685,7 @@
       <c r="A898" s="13"/>
       <c r="B898" s="14"/>
       <c r="C898" s="14"/>
-      <c r="D898" s="43"/>
+      <c r="D898" s="42"/>
       <c r="E898" s="26"/>
       <c r="F898" s="26"/>
       <c r="G898" s="2"/>
@@ -32717,7 +32716,7 @@
       <c r="A899" s="13"/>
       <c r="B899" s="14"/>
       <c r="C899" s="14"/>
-      <c r="D899" s="43"/>
+      <c r="D899" s="42"/>
       <c r="E899" s="26"/>
       <c r="F899" s="26"/>
       <c r="G899" s="2"/>
@@ -32748,7 +32747,7 @@
       <c r="A900" s="13"/>
       <c r="B900" s="14"/>
       <c r="C900" s="14"/>
-      <c r="D900" s="43"/>
+      <c r="D900" s="42"/>
       <c r="E900" s="26"/>
       <c r="F900" s="26"/>
       <c r="G900" s="2"/>
@@ -32779,7 +32778,7 @@
       <c r="A901" s="13"/>
       <c r="B901" s="14"/>
       <c r="C901" s="14"/>
-      <c r="D901" s="43"/>
+      <c r="D901" s="42"/>
       <c r="E901" s="26"/>
       <c r="F901" s="26"/>
       <c r="G901" s="2"/>
@@ -32810,7 +32809,7 @@
       <c r="A902" s="13"/>
       <c r="B902" s="14"/>
       <c r="C902" s="14"/>
-      <c r="D902" s="43"/>
+      <c r="D902" s="42"/>
       <c r="E902" s="26"/>
       <c r="F902" s="26"/>
       <c r="G902" s="2"/>
@@ -32841,7 +32840,7 @@
       <c r="A903" s="13"/>
       <c r="B903" s="14"/>
       <c r="C903" s="14"/>
-      <c r="D903" s="43"/>
+      <c r="D903" s="42"/>
       <c r="E903" s="26"/>
       <c r="F903" s="26"/>
       <c r="G903" s="2"/>
@@ -32872,7 +32871,7 @@
       <c r="A904" s="13"/>
       <c r="B904" s="14"/>
       <c r="C904" s="14"/>
-      <c r="D904" s="43"/>
+      <c r="D904" s="42"/>
       <c r="E904" s="26"/>
       <c r="F904" s="26"/>
       <c r="G904" s="2"/>
@@ -32903,7 +32902,7 @@
       <c r="A905" s="13"/>
       <c r="B905" s="14"/>
       <c r="C905" s="14"/>
-      <c r="D905" s="43"/>
+      <c r="D905" s="42"/>
       <c r="E905" s="26"/>
       <c r="F905" s="26"/>
       <c r="G905" s="2"/>
@@ -32934,7 +32933,7 @@
       <c r="A906" s="13"/>
       <c r="B906" s="14"/>
       <c r="C906" s="14"/>
-      <c r="D906" s="43"/>
+      <c r="D906" s="42"/>
       <c r="E906" s="26"/>
       <c r="F906" s="26"/>
       <c r="G906" s="2"/>
@@ -32965,7 +32964,7 @@
       <c r="A907" s="13"/>
       <c r="B907" s="14"/>
       <c r="C907" s="14"/>
-      <c r="D907" s="43"/>
+      <c r="D907" s="42"/>
       <c r="E907" s="26"/>
       <c r="F907" s="26"/>
       <c r="G907" s="2"/>
@@ -32996,7 +32995,7 @@
       <c r="A908" s="13"/>
       <c r="B908" s="14"/>
       <c r="C908" s="14"/>
-      <c r="D908" s="43"/>
+      <c r="D908" s="42"/>
       <c r="E908" s="26"/>
       <c r="F908" s="26"/>
       <c r="G908" s="2"/>
@@ -33027,7 +33026,7 @@
       <c r="A909" s="13"/>
       <c r="B909" s="14"/>
       <c r="C909" s="14"/>
-      <c r="D909" s="43"/>
+      <c r="D909" s="42"/>
       <c r="E909" s="26"/>
       <c r="F909" s="26"/>
       <c r="G909" s="2"/>
@@ -33058,7 +33057,7 @@
       <c r="A910" s="13"/>
       <c r="B910" s="14"/>
       <c r="C910" s="14"/>
-      <c r="D910" s="43"/>
+      <c r="D910" s="42"/>
       <c r="E910" s="26"/>
       <c r="F910" s="26"/>
       <c r="G910" s="2"/>
@@ -33089,7 +33088,7 @@
       <c r="A911" s="13"/>
       <c r="B911" s="14"/>
       <c r="C911" s="14"/>
-      <c r="D911" s="43"/>
+      <c r="D911" s="42"/>
       <c r="E911" s="26"/>
       <c r="F911" s="26"/>
       <c r="G911" s="2"/>
@@ -33120,7 +33119,7 @@
       <c r="A912" s="13"/>
       <c r="B912" s="14"/>
       <c r="C912" s="14"/>
-      <c r="D912" s="43"/>
+      <c r="D912" s="42"/>
       <c r="E912" s="26"/>
       <c r="F912" s="26"/>
       <c r="G912" s="2"/>
@@ -33151,7 +33150,7 @@
       <c r="A913" s="13"/>
       <c r="B913" s="14"/>
       <c r="C913" s="14"/>
-      <c r="D913" s="43"/>
+      <c r="D913" s="42"/>
       <c r="E913" s="26"/>
       <c r="F913" s="26"/>
       <c r="G913" s="2"/>
@@ -33182,7 +33181,7 @@
       <c r="A914" s="13"/>
       <c r="B914" s="14"/>
       <c r="C914" s="14"/>
-      <c r="D914" s="43"/>
+      <c r="D914" s="42"/>
       <c r="E914" s="26"/>
       <c r="F914" s="26"/>
       <c r="G914" s="2"/>
@@ -33211,21 +33210,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{5FCD45F0-2EDE-439B-B88C-B06DE01B17D4}"/>
+      <autoFilter ref="A293:C332" xr:uid="{47761B09-D8BA-4891-89BD-016B644F4602}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{F57A0DE6-560A-4F65-97D4-B0A927210257}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{24B2E198-F00C-4D39-9AD5-BCE865667DCD}"/>
+      <autoFilter ref="A11:D37" xr:uid="{DEE7166D-69F5-4889-8C19-3B4AB44A8C6C}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{FA53436A-13C9-43D6-8776-5B5D70E16714}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{E078AE93-05A3-489C-A045-BA729FD90156}"/>
+      <autoFilter ref="A11:C37" xr:uid="{B8D18A8B-099B-4A64-B0F2-CB9F62BCE241}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -33631,28 +33630,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="9"/>

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029331B-6AD6-48CE-8339-9B83D970D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47112839-C0D1-4CBD-A065-116460E6C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3539,7 +3539,9 @@
         <v>43</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
@@ -3576,7 +3578,9 @@
         <v>44</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
       </c>
@@ -33210,21 +33214,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{47761B09-D8BA-4891-89BD-016B644F4602}"/>
+      <autoFilter ref="A11:C37" xr:uid="{67288A8F-AC6E-4FFD-8B5E-5E3D5E5A65CA}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{42B8C2AE-708A-466A-B2B1-1B36D2FFAB54}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F57A0DE6-560A-4F65-97D4-B0A927210257}"/>
+      <autoFilter ref="A11:D37" xr:uid="{7D73781B-1106-4C16-902F-9A128749BD94}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{DEE7166D-69F5-4889-8C19-3B4AB44A8C6C}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{B8D18A8B-099B-4A64-B0F2-CB9F62BCE241}"/>
+      <autoFilter ref="A293:C332" xr:uid="{21FA3932-3FA2-43EF-8C6F-C413933049C5}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47112839-C0D1-4CBD-A065-116460E6C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA36C29-39F5-406C-B613-32531176E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2738,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="105" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,9 @@
         <v>47</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E24" s="12" t="s">
         <v>48</v>
       </c>
@@ -3695,6 +3697,9 @@
         <v>50</v>
       </c>
       <c r="C26" s="11"/>
+      <c r="D26" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E26" s="12" t="s">
         <v>51</v>
       </c>
@@ -33214,21 +33219,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{67288A8F-AC6E-4FFD-8B5E-5E3D5E5A65CA}"/>
+      <autoFilter ref="A293:C332" xr:uid="{9BB792A4-4218-497D-936F-7F5C1E416285}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{FD45CAC0-DAAE-46DD-B681-8031936F18C1}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{42B8C2AE-708A-466A-B2B1-1B36D2FFAB54}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C3BA4ACB-291B-4DED-A6C5-EB05B33FA12F}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{7D73781B-1106-4C16-902F-9A128749BD94}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{21FA3932-3FA2-43EF-8C6F-C413933049C5}"/>
+      <autoFilter ref="A11:C37" xr:uid="{A3C53268-092D-4508-91DE-03D0C51F0638}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA36C29-39F5-406C-B613-32531176E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14A604-BFE0-4D59-AED1-31622B98B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -3736,7 +3736,9 @@
         <v>52</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E27" s="12" t="s">
         <v>53</v>
       </c>
@@ -33219,21 +33221,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9BB792A4-4218-497D-936F-7F5C1E416285}"/>
+      <autoFilter ref="A11:C37" xr:uid="{0ACB2A45-7D75-4140-937B-E1EEB2CA3B90}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{5B33EC87-A986-47DA-AEE2-0FD74F8ADB55}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{FD45CAC0-DAAE-46DD-B681-8031936F18C1}"/>
+      <autoFilter ref="A11:D37" xr:uid="{5D3BF9DF-E222-4578-A829-977AD89160C5}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{C3BA4ACB-291B-4DED-A6C5-EB05B33FA12F}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{A3C53268-092D-4508-91DE-03D0C51F0638}"/>
+      <autoFilter ref="A293:C332" xr:uid="{E77A8CF3-7C97-4AFC-928F-015B094346B0}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF14A604-BFE0-4D59-AED1-31622B98B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9235B-B0D0-4E62-A7EB-53F415039F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="105" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3775,6 +3775,9 @@
         <v>54</v>
       </c>
       <c r="C28" s="11"/>
+      <c r="D28" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>55</v>
       </c>
@@ -3811,7 +3814,9 @@
         <v>56</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="41"/>
+      <c r="D29" s="40" t="s">
+        <v>700</v>
+      </c>
       <c r="E29" s="12" t="s">
         <v>53</v>
       </c>
@@ -33221,21 +33226,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{0ACB2A45-7D75-4140-937B-E1EEB2CA3B90}"/>
+      <autoFilter ref="A293:C332" xr:uid="{898F705B-02E1-4035-9DAF-28A2957768D4}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{20DB233E-3794-4A76-8E31-12DBB885B708}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{5B33EC87-A986-47DA-AEE2-0FD74F8ADB55}"/>
+      <autoFilter ref="A11:D37" xr:uid="{854A1D4E-9F62-4B90-AE3B-02D1CCDB816A}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{5D3BF9DF-E222-4578-A829-977AD89160C5}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{E77A8CF3-7C97-4AFC-928F-015B094346B0}"/>
+      <autoFilter ref="A11:C37" xr:uid="{81478CA2-2CCA-4B0B-B3F6-3C259D7E355A}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
